--- a/lib/logic/tools/crypto_and_encodings/general_codebreakers/vigenere_breaker/HighPassFilter.xlsx
+++ b/lib/logic/tools/crypto_and_encodings/general_codebreakers/vigenere_breaker/HighPassFilter.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\GCWizard\lib\logic\tools\crypto_and_encodings\vigenere_breaker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\GCWizard\lib\logic\tools\crypto_and_encodings\general_codebreakers\vigenere_breaker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F871CF68-647A-44BB-A606-08DB7FF50FC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{490E2515-0C0A-412B-8407-09F85312D4AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -124,12 +124,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -138,6 +132,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -245,88 +245,88 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>22.898251543122271</c:v>
+                  <c:v>11.680000000000007</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20.195851543122259</c:v>
+                  <c:v>5.1100000000000136</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22.741499543122274</c:v>
+                  <c:v>8.1500000000000199</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>27.451034583122265</c:v>
+                  <c:v>24.120000000000005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18.630578922322243</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20.188332374738252</c:v>
+                  <c:v>11.700000000000031</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>20.450730758105934</c:v>
+                  <c:v>15.11</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16.101881173806262</c:v>
+                  <c:v>2.1800000000000068</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>19.905408581192603</c:v>
+                  <c:v>16.320000000000007</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17.841065440431223</c:v>
+                  <c:v>10.000000000000028</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>16.219809162485035</c:v>
+                  <c:v>8.64</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>16.365578010097764</c:v>
+                  <c:v>13.39</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13.588031480758261</c:v>
+                  <c:v>7.7000000000000313</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13.521835882005533</c:v>
+                  <c:v>15.489999999999995</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.4785641952278752</c:v>
+                  <c:v>1.5400000000000205</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>12.228757942185759</c:v>
+                  <c:v>13.75</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>12.63074781420449</c:v>
+                  <c:v>11.810000000000016</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>11.652697888782839</c:v>
+                  <c:v>10.180000000000021</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>10.919608961869635</c:v>
+                  <c:v>12.840000000000003</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7.8197818134946786</c:v>
+                  <c:v>7.6099999999999994</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7.5259512080872284</c:v>
+                  <c:v>7.5600000000000307</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>10.030997214787924</c:v>
+                  <c:v>17.029999999999987</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5.9983423013546329</c:v>
+                  <c:v>8.3300000000000267</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.084740486189979</c:v>
+                  <c:v>6.2800000000000153</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>6.2568107073286257</c:v>
+                  <c:v>14.549999999999997</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4.3282395240445197</c:v>
+                  <c:v>10.010000000000019</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.8302397644260751</c:v>
+                  <c:v>11.800000000000011</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>8.6000000000000085</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -591,88 +591,88 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>22.62263110957258</c:v>
+                  <c:v>10.109999999999985</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22.448431109572581</c:v>
+                  <c:v>2.9899999999999665</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30.597915109572568</c:v>
+                  <c:v>32.119999999999962</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18.357209429572563</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17.611717863172558</c:v>
+                  <c:v>8.6699999999999591</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19.634936128100577</c:v>
+                  <c:v>15.469999999999985</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17.707490027730003</c:v>
+                  <c:v>5.1499999999999631</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>22.021992849366882</c:v>
+                  <c:v>21.159999999999982</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>16.763805614570984</c:v>
+                  <c:v>8.5399999999999778</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>14.491982124470994</c:v>
+                  <c:v>10.379999999999981</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13.343595104173019</c:v>
+                  <c:v>11.359999999999971</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.335775824281015</c:v>
+                  <c:v>5.6499999999999773</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>17.061512929986861</c:v>
+                  <c:v>21.80999999999996</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>11.56933529357859</c:v>
+                  <c:v>7.9699999999999989</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9.6268012098984599</c:v>
+                  <c:v>11.30999999999996</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7.8897178078919623</c:v>
+                  <c:v>9.3699999999999761</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8.2551760739255826</c:v>
+                  <c:v>12.089999999999989</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8.0155251746385119</c:v>
+                  <c:v>13.549999999999969</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.7520672933372055</c:v>
+                  <c:v>11.489999999999966</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.524078569661917</c:v>
+                  <c:v>8.0299999999999869</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.7216496204601341</c:v>
+                  <c:v>14.939999999999969</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.50446925024238</c:v>
+                  <c:v>6.069999999999979</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5.6334324874289834</c:v>
+                  <c:v>16.489999999999966</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.7900164598718575</c:v>
+                  <c:v>12.609999999999985</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.87606875286587638</c:v>
+                  <c:v>9.4599999999999795</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>8.7499999999999716</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.8168526221914476</c:v>
+                  <c:v>14.479999999999961</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.65736819193909213</c:v>
+                  <c:v>11.419999999999987</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -937,76 +937,76 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>21.316142997902006</c:v>
+                  <c:v>6.8599999999999852</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23.869942997902001</c:v>
+                  <c:v>7.4899999999999949</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29.763466997902015</c:v>
+                  <c:v>25.759999999999991</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21.025320517902003</c:v>
+                  <c:v>0.10999999999997101</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23.085136967502009</c:v>
+                  <c:v>14.090000000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22.026557088110025</c:v>
+                  <c:v>10.149999999999991</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21.773148806305841</c:v>
+                  <c:v>13.199999999999989</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>19.319808690137762</c:v>
+                  <c:v>13.479999999999976</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>14.436135376293052</c:v>
+                  <c:v>0.20000000000000284</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20.185135528725226</c:v>
+                  <c:v>17.009999999999977</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>19.880355678108756</c:v>
+                  <c:v>15.700000000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>14.926671424504605</c:v>
+                  <c:v>1.4299999999999784</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>19.401660855972565</c:v>
+                  <c:v>19.169999999999987</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>15.731550498811174</c:v>
+                  <c:v>11.289999999999992</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>11.801642348792974</c:v>
+                  <c:v>9.3299999999999841</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9.5379323617751481</c:v>
+                  <c:v>9.019999999999996</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9.2108965744976814</c:v>
+                  <c:v>17.629999999999981</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.3440015029657744</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.3454443328644814</c:v>
+                  <c:v>20.559999999999974</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.84905830616524725</c:v>
+                  <c:v>6.3199999999999932</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>9.9399999999999977</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>28.426142997902005</c:v>
+                  <c:v>13.34999999999998</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>25.663342997902006</c:v>
+                  <c:v>9.7299999999999898</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>24.151398997902007</c:v>
+                  <c:v>10.97999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1271,88 +1271,88 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>18.29109864130178</c:v>
+                  <c:v>5.9299999999999926</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17.037298641301781</c:v>
+                  <c:v>5.0499999999999972</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16.94537464130179</c:v>
+                  <c:v>1.8099999999999881</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21.167289121301785</c:v>
+                  <c:v>17.009999999999991</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14.72076531170179</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14.488971978293783</c:v>
+                  <c:v>5.539999999999992</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14.918414511553927</c:v>
+                  <c:v>7.6700000000000017</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13.90846819414886</c:v>
+                  <c:v>3.9899999999999949</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15.094320803091897</c:v>
+                  <c:v>9.9499999999999744</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12.591256359856111</c:v>
+                  <c:v>7.0800000000000125</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.2856532054850121</c:v>
+                  <c:v>4.7299999999999898</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.4965621142013461</c:v>
+                  <c:v>2.8299999999999841</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9.0556528447433564</c:v>
+                  <c:v>9.2000000000000028</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.653361760674521</c:v>
+                  <c:v>6.2099999999999937</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.2791164982870455</c:v>
+                  <c:v>5.6499999999999915</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.4811561411473377</c:v>
+                  <c:v>5.6199999999999903</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.2773549911504247</c:v>
+                  <c:v>9.8100000000000023</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.5496298641534594</c:v>
+                  <c:v>1.8399999999999892</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.1790592396964144</c:v>
+                  <c:v>8.2199999999999847</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.82610002772852198</c:v>
+                  <c:v>5.7000000000000028</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>6.0300000000000011</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>28.261098641301778</c:v>
+                  <c:v>6.4699999999999847</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>26.807898641301783</c:v>
+                  <c:v>4.9199999999999875</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>26.647962641301795</c:v>
+                  <c:v>8.4500000000000028</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>29.441098641301785</c:v>
+                  <c:v>6.019999999999996</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>27.219498641301762</c:v>
+                  <c:v>6.5799999999999841</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>24.679730641301781</c:v>
+                  <c:v>4.6800000000000068</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>23.690158001301775</c:v>
+                  <c:v>6.8899999999999864</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1617,268 +1617,268 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="88"/>
                 <c:pt idx="0">
-                  <c:v>51.710019942234034</c:v>
+                  <c:v>4.4800000000000182</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>51.238619942234017</c:v>
+                  <c:v>6.5999999999999943</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>49.630047942234022</c:v>
+                  <c:v>6.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>47.250047382234037</c:v>
+                  <c:v>1.4400000000000119</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>48.827846833434045</c:v>
+                  <c:v>6.6000000000000085</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>49.227490295610046</c:v>
+                  <c:v>6.6200000000000188</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>48.452940888542507</c:v>
+                  <c:v>8.2599999999999909</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44.920482469616339</c:v>
+                  <c:v>1.8500000000000085</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44.967073219068681</c:v>
+                  <c:v>5.2300000000000182</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45.208732153531969</c:v>
+                  <c:v>8.519999999999996</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>42.41735790930602</c:v>
+                  <c:v>2.8900000000000148</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>42.171011149964563</c:v>
+                  <c:v>7.1299999999999955</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>40.263591325809955</c:v>
+                  <c:v>2.9000000000000199</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>40.873719898138432</c:v>
+                  <c:v>8.0699999999999932</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>38.884445899020356</c:v>
+                  <c:v>4.5100000000000193</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>37.836557379884638</c:v>
+                  <c:v>2.9299999999999926</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>39.259626631131638</c:v>
+                  <c:v>9.6700000000000159</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>36.499034497353676</c:v>
+                  <c:v>3.9700000000000131</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>35.224454206251281</c:v>
+                  <c:v>4.2999999999999972</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>35.082765520970945</c:v>
+                  <c:v>5.5700000000000074</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>34.806710609396205</c:v>
+                  <c:v>4.1500000000000057</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>35.790576796052974</c:v>
+                  <c:v>9.1200000000000188</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>33.138565658976582</c:v>
+                  <c:v>4.3999999999999915</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>31.548994744641739</c:v>
+                  <c:v>3.4400000000000119</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>31.941415248593572</c:v>
+                  <c:v>8.1900000000000119</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>29.621187342466385</c:v>
+                  <c:v>4.2800000000000011</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>28.474363994461733</c:v>
+                  <c:v>3.8000000000000114</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>28.947877113417178</c:v>
+                  <c:v>8.3000000000000114</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>26.599319969993502</c:v>
+                  <c:v>1.6299999999999955</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>28.021733969438309</c:v>
+                  <c:v>8.6900000000000119</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>26.220899688894221</c:v>
+                  <c:v>5.9399999999999977</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>23.956282093961029</c:v>
+                  <c:v>2.6900000000000261</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>24.422156850926477</c:v>
+                  <c:v>5.2099999999999937</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>25.094314112752627</c:v>
+                  <c:v>6.7400000000000091</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>24.469228229342249</c:v>
+                  <c:v>4.7600000000000051</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>24.513244063600091</c:v>
+                  <c:v>8.3900000000000148</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>21.655579581172759</c:v>
+                  <c:v>1.5899999999999892</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>22.618268388394</c:v>
+                  <c:v>8.7400000000000233</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>20.317903419470788</c:v>
+                  <c:v>3.4899999999999949</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>19.96474574992606</c:v>
+                  <c:v>5.1200000000000188</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>19.922451233772215</c:v>
+                  <c:v>5.0799999999999983</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>20.224002607941451</c:v>
+                  <c:v>6.1000000000000085</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>19.862922954627301</c:v>
+                  <c:v>7.6900000000000119</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>17.294264894379431</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>17.648379995336526</c:v>
+                  <c:v>5.9900000000000233</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>17.446612794274458</c:v>
+                  <c:v>7.3999999999999915</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>15.318280937233645</c:v>
+                  <c:v>2.7800000000000011</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>15.829515717333663</c:v>
+                  <c:v>7.3400000000000176</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>14.458725801831662</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>18.436751684639717</c:v>
+                  <c:v>13.260000000000019</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>14.661817049791587</c:v>
+                  <c:v>1.7800000000000011</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>14.53938110764043</c:v>
+                  <c:v>6.6899999999999977</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>13.184593884332308</c:v>
+                  <c:v>4.9700000000000131</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>12.307702405490343</c:v>
+                  <c:v>3.4300000000000068</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>13.408348756225212</c:v>
+                  <c:v>8.8100000000000023</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>11.174582179945396</c:v>
+                  <c:v>3.0500000000000114</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>11.317890935191169</c:v>
+                  <c:v>6.3600000000000136</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>10.546933515332015</c:v>
+                  <c:v>5.1199999999999903</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>10.095195243870055</c:v>
+                  <c:v>5.0700000000000216</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>10.005291737837332</c:v>
+                  <c:v>7.8100000000000023</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>7.5847863019252664</c:v>
+                  <c:v>2.2000000000000028</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>8.3780909747314496</c:v>
+                  <c:v>6.6600000000000108</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>7.9501295540815065</c:v>
+                  <c:v>5.480000000000004</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>7.481727361844559</c:v>
+                  <c:v>3.6100000000000136</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>8.8062932134523386</c:v>
+                  <c:v>9.4300000000000068</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>6.1843677480279702</c:v>
+                  <c:v>2.7099999999999937</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>6.2804807919121011</c:v>
+                  <c:v>5.6400000000000148</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>6.1688715749185441</c:v>
+                  <c:v>5.3200000000000074</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>6.1672945422648553</c:v>
+                  <c:v>5.4800000000000182</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>6.1167490502642359</c:v>
+                  <c:v>5.4300000000000068</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>6.0672144681036393</c:v>
+                  <c:v>7.2600000000000051</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>4.2252705775862474</c:v>
+                  <c:v>3.0700000000000074</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>4.7329655648792084</c:v>
+                  <c:v>6.6400000000000148</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>4.0447066524263064</c:v>
+                  <c:v>5.730000000000004</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>3.0762129182224598</c:v>
+                  <c:v>3.8500000000000085</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>3.6754890587026878</c:v>
+                  <c:v>7.0900000000000034</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>2.6359796763733137</c:v>
+                  <c:v>5.1300000000000097</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1.9112604816905296</c:v>
+                  <c:v>4.2999999999999972</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>2.3084356709014031</c:v>
+                  <c:v>6.6000000000000227</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1.5510673563280406</c:v>
+                  <c:v>5.3199999999999932</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.91664640804616582</c:v>
+                  <c:v>4.4700000000000131</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1.2357138787299249</c:v>
+                  <c:v>7.0100000000000051</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0</c:v>
+                  <c:v>2.8400000000000034</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1.3272003988446777</c:v>
+                  <c:v>7.1700000000000159</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.92265678971245535</c:v>
+                  <c:v>5.0700000000000074</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.87900405276288041</c:v>
+                  <c:v>6.1699999999999875</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.11102437055231107</c:v>
+                  <c:v>4.3600000000000279</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.40700428198593386</c:v>
+                  <c:v>6.1099999999999994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5280,8 +5280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P232"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
-      <selection activeCell="E144" sqref="E144"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E231" sqref="E231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5292,10 +5292,10 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
     </row>
@@ -5303,26 +5303,26 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="10"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>3</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="5">
         <v>72.89</v>
       </c>
       <c r="C3" s="2">
         <v>0.98</v>
       </c>
       <c r="E3" s="3">
-        <f>B3</f>
-        <v>72.89</v>
+        <f>2*B3-B4-B3</f>
+        <v>1.269999999999996</v>
       </c>
       <c r="F3" s="3">
         <f>E3-E$33</f>
-        <v>22.898251543122271</v>
+        <v>11.680000000000007</v>
       </c>
       <c r="P3" t="s">
         <v>4</v>
@@ -5332,459 +5332,459 @@
       <c r="A4" s="2">
         <v>4</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="5">
         <v>71.62</v>
       </c>
       <c r="C4" s="2"/>
       <c r="E4">
-        <f>$C$3*(E3 + B4 - B3)</f>
-        <v>70.187599999999989</v>
+        <f>2*B4-B3-B5</f>
+        <v>-5.2999999999999972</v>
       </c>
       <c r="F4" s="3">
         <f t="shared" ref="F4:F30" si="0">E4-E$33</f>
-        <v>20.195851543122259</v>
+        <v>5.1100000000000136</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>5</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="5">
         <v>75.650000000000006</v>
       </c>
       <c r="C5" s="2"/>
       <c r="E5">
-        <f t="shared" ref="E5:E30" si="1">$C$3*(E4 + B5 - B4)</f>
-        <v>72.733248000000003</v>
+        <f t="shared" ref="E5:E29" si="1">2*B5-B4-B6</f>
+        <v>-2.2599999999999909</v>
       </c>
       <c r="F5" s="3">
         <f t="shared" si="0"/>
-        <v>22.741499543122274</v>
+        <v>8.1500000000000199</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>6</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="7">
         <v>81.94</v>
       </c>
       <c r="C6" s="2"/>
       <c r="E6">
         <f t="shared" si="1"/>
-        <v>77.442783039999995</v>
+        <v>13.709999999999994</v>
       </c>
       <c r="F6" s="3">
         <f t="shared" si="0"/>
-        <v>27.451034583122265</v>
+        <v>24.120000000000005</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>7</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="5">
         <v>74.52</v>
       </c>
       <c r="C7" s="2"/>
       <c r="E7">
         <f t="shared" si="1"/>
-        <v>68.622327379199973</v>
+        <v>-10.410000000000011</v>
       </c>
       <c r="F7" s="3">
         <f t="shared" si="0"/>
-        <v>18.630578922322243</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>8</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="5">
         <v>77.510000000000005</v>
       </c>
       <c r="C8" s="2"/>
       <c r="E8">
         <f t="shared" si="1"/>
-        <v>70.180080831615982</v>
+        <v>1.2900000000000205</v>
       </c>
       <c r="F8" s="3">
         <f t="shared" si="0"/>
-        <v>20.188332374738252</v>
+        <v>11.700000000000031</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>9</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="5">
         <v>79.209999999999994</v>
       </c>
       <c r="C9" s="2"/>
       <c r="E9">
         <f t="shared" si="1"/>
-        <v>70.442479214983663</v>
+        <v>4.6999999999999886</v>
       </c>
       <c r="F9" s="3">
         <f t="shared" si="0"/>
-        <v>20.450730758105934</v>
+        <v>15.11</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>10</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="5">
         <v>76.209999999999994</v>
       </c>
       <c r="C10" s="2"/>
       <c r="E10">
         <f t="shared" si="1"/>
-        <v>66.093629630683992</v>
+        <v>-8.230000000000004</v>
       </c>
       <c r="F10" s="3">
         <f t="shared" si="0"/>
-        <v>16.101881173806262</v>
+        <v>2.1800000000000068</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>11</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="5">
         <v>81.44</v>
       </c>
       <c r="C11" s="2"/>
       <c r="E11">
         <f t="shared" si="1"/>
-        <v>69.897157038070333</v>
+        <v>5.9099999999999966</v>
       </c>
       <c r="F11" s="3">
         <f t="shared" si="0"/>
-        <v>19.905408581192603</v>
+        <v>16.320000000000007</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>12</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="5">
         <v>80.760000000000005</v>
       </c>
       <c r="C12" s="2"/>
       <c r="E12">
         <f t="shared" si="1"/>
-        <v>67.832813897308952</v>
+        <v>-0.40999999999998238</v>
       </c>
       <c r="F12" s="3">
         <f t="shared" si="0"/>
-        <v>17.841065440431223</v>
+        <v>10.000000000000028</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>13</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="5">
         <v>80.489999999999995</v>
       </c>
       <c r="C13" s="2"/>
       <c r="E13">
         <f t="shared" si="1"/>
-        <v>66.211557619362765</v>
+        <v>-1.7700000000000102</v>
       </c>
       <c r="F13" s="3">
         <f t="shared" si="0"/>
-        <v>16.219809162485035</v>
+        <v>8.64</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>14</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="5">
         <v>81.99</v>
       </c>
       <c r="C14" s="2"/>
       <c r="E14">
         <f t="shared" si="1"/>
-        <v>66.357326466975493</v>
+        <v>2.9799999999999898</v>
       </c>
       <c r="F14" s="3">
         <f t="shared" si="0"/>
-        <v>16.365578010097764</v>
+        <v>13.39</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>15</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="5">
         <v>80.510000000000005</v>
       </c>
       <c r="C15" s="2"/>
       <c r="E15">
         <f t="shared" si="1"/>
-        <v>63.57977993763599</v>
+        <v>-2.7099999999999795</v>
       </c>
       <c r="F15" s="3">
         <f t="shared" si="0"/>
-        <v>13.588031480758261</v>
+        <v>7.7000000000000313</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>16</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="5">
         <v>81.739999999999995</v>
       </c>
       <c r="C16" s="2"/>
       <c r="E16">
         <f t="shared" si="1"/>
-        <v>63.513584338883263</v>
+        <v>5.0799999999999841</v>
       </c>
       <c r="F16" s="3">
         <f t="shared" si="0"/>
-        <v>13.521835882005533</v>
+        <v>15.489999999999995</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>17</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="5">
         <v>77.89</v>
       </c>
       <c r="C17" s="2"/>
       <c r="E17">
         <f t="shared" si="1"/>
-        <v>58.470312652105605</v>
+        <v>-8.8699999999999903</v>
       </c>
       <c r="F17" s="3">
         <f t="shared" si="0"/>
-        <v>8.4785641952278752</v>
+        <v>1.5400000000000205</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>18</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="5">
         <v>82.91</v>
       </c>
       <c r="C18" s="2"/>
       <c r="E18">
         <f t="shared" si="1"/>
-        <v>62.220506399063488</v>
+        <v>3.3399999999999892</v>
       </c>
       <c r="F18" s="3">
         <f t="shared" si="0"/>
-        <v>12.228757942185759</v>
+        <v>13.75</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>19</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="5">
         <v>84.59</v>
       </c>
       <c r="C19" s="2"/>
       <c r="E19">
         <f t="shared" si="1"/>
-        <v>62.62249627108222</v>
+        <v>1.4000000000000057</v>
       </c>
       <c r="F19" s="3">
         <f t="shared" si="0"/>
-        <v>12.63074781420449</v>
+        <v>11.810000000000016</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>20</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="5">
         <v>84.87</v>
       </c>
       <c r="C20" s="2"/>
       <c r="E20">
         <f t="shared" si="1"/>
-        <v>61.644446345660569</v>
+        <v>-0.22999999999998977</v>
       </c>
       <c r="F20" s="3">
         <f t="shared" si="0"/>
-        <v>11.652697888782839</v>
+        <v>10.180000000000021</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>21</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="5">
         <v>85.38</v>
       </c>
       <c r="C21" s="2"/>
       <c r="E21">
         <f t="shared" si="1"/>
-        <v>60.911357418747365</v>
+        <v>2.4299999999999926</v>
       </c>
       <c r="F21" s="3">
         <f t="shared" si="0"/>
-        <v>10.919608961869635</v>
+        <v>12.840000000000003</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>22</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="5">
         <v>83.46</v>
       </c>
       <c r="C22" s="2"/>
       <c r="E22">
         <f t="shared" si="1"/>
-        <v>57.811530270372408</v>
+        <v>-2.8000000000000114</v>
       </c>
       <c r="F22" s="3">
         <f t="shared" si="0"/>
-        <v>7.8197818134946786</v>
+        <v>7.6099999999999994</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>23</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="5">
         <v>84.34</v>
       </c>
       <c r="C23" s="2"/>
       <c r="E23">
         <f t="shared" si="1"/>
-        <v>57.517699664964958</v>
+        <v>-2.8499999999999801</v>
       </c>
       <c r="F23" s="3">
         <f t="shared" si="0"/>
-        <v>7.5259512080872284</v>
+        <v>7.5600000000000307</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>24</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="5">
         <v>88.07</v>
       </c>
       <c r="C24" s="2"/>
       <c r="E24">
         <f t="shared" si="1"/>
-        <v>60.022745671665653</v>
+        <v>6.6199999999999761</v>
       </c>
       <c r="F24" s="3">
         <f t="shared" si="0"/>
-        <v>10.030997214787924</v>
+        <v>17.029999999999987</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>25</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="5">
         <v>85.18</v>
       </c>
       <c r="C25" s="2"/>
       <c r="E25">
         <f t="shared" si="1"/>
-        <v>55.990090758232363</v>
+        <v>-2.0799999999999841</v>
       </c>
       <c r="F25" s="3">
         <f t="shared" si="0"/>
-        <v>5.9983423013546329</v>
+        <v>8.3300000000000267</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>26</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B26" s="5">
         <v>84.37</v>
       </c>
       <c r="C26" s="2"/>
       <c r="E26">
         <f t="shared" si="1"/>
-        <v>54.076488943067709</v>
+        <v>-4.1299999999999955</v>
       </c>
       <c r="F26" s="3">
         <f t="shared" si="0"/>
-        <v>4.084740486189979</v>
+        <v>6.2800000000000153</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>27</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27" s="5">
         <v>87.69</v>
       </c>
       <c r="C27" s="2"/>
       <c r="E27">
         <f t="shared" si="1"/>
-        <v>56.248559164206355</v>
+        <v>4.1399999999999864</v>
       </c>
       <c r="F27" s="3">
         <f t="shared" si="0"/>
-        <v>6.2568107073286257</v>
+        <v>14.549999999999997</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>28</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B28" s="5">
         <v>86.87</v>
       </c>
       <c r="C28" s="2"/>
       <c r="E28">
         <f t="shared" si="1"/>
-        <v>54.319987980922249</v>
+        <v>-0.39999999999999147</v>
       </c>
       <c r="F28" s="3">
         <f t="shared" si="0"/>
-        <v>4.3282395240445197</v>
+        <v>10.010000000000019</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>29</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B29" s="5">
         <v>86.45</v>
       </c>
       <c r="C29" s="2"/>
       <c r="E29">
         <f t="shared" si="1"/>
-        <v>52.821988221303805</v>
+        <v>1.3900000000000006</v>
       </c>
       <c r="F29" s="3">
         <f t="shared" si="0"/>
-        <v>2.8302397644260751</v>
+        <v>11.800000000000011</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>30</v>
       </c>
-      <c r="B30" s="8">
+      <c r="B30" s="6">
         <v>84.64</v>
       </c>
       <c r="C30" s="2"/>
       <c r="E30">
-        <f t="shared" si="1"/>
-        <v>49.99174845687773</v>
+        <f>2*B30-B29-B30</f>
+        <v>-1.8100000000000023</v>
       </c>
       <c r="F30" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.6000000000000085</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -5793,21 +5793,21 @@
       </c>
       <c r="F32" s="3">
         <f>MAX(F3:F30)</f>
-        <v>27.451034583122265</v>
+        <v>24.120000000000005</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E33" s="3">
         <f>MIN(E3:E30)</f>
-        <v>49.99174845687773</v>
+        <v>-10.410000000000011</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="10" t="s">
         <v>2</v>
       </c>
     </row>
@@ -5815,417 +5815,417 @@
       <c r="A37" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B37" s="5"/>
-      <c r="C37" s="6"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="10"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>3</v>
       </c>
-      <c r="B38" s="7">
+      <c r="B38" s="5">
         <v>75.84</v>
       </c>
       <c r="C38" s="2"/>
       <c r="E38" s="3">
-        <f>B38</f>
-        <v>75.84</v>
+        <f>2*B38-B39-B38</f>
+        <v>-1.3699999999999903</v>
       </c>
       <c r="F38" s="3">
         <f>E38-E$68</f>
-        <v>22.62263110957258</v>
+        <v>10.109999999999985</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>4</v>
       </c>
-      <c r="B39" s="7">
+      <c r="B39" s="5">
         <v>77.209999999999994</v>
       </c>
       <c r="C39" s="2"/>
       <c r="E39">
-        <f>$C$3*(E38 + B39 - B38)</f>
-        <v>75.665800000000004</v>
+        <f>2*B39 -  B38 - B40</f>
+        <v>-8.4900000000000091</v>
       </c>
       <c r="F39" s="3">
         <f t="shared" ref="F39:F65" si="2">E39-E$68</f>
-        <v>22.448431109572581</v>
+        <v>2.9899999999999665</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>5</v>
       </c>
-      <c r="B40" s="9">
+      <c r="B40" s="7">
         <v>87.07</v>
       </c>
       <c r="C40" s="2"/>
       <c r="E40">
-        <f t="shared" ref="E40:E65" si="3">$C$3*(E39 + B40 - B39)</f>
-        <v>83.815283999999991</v>
+        <f t="shared" ref="E40:E65" si="3">2*B40 -  B39 - B41</f>
+        <v>20.639999999999986</v>
       </c>
       <c r="F40" s="3">
         <f t="shared" si="2"/>
-        <v>30.597915109572568</v>
+        <v>32.119999999999962</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>6</v>
       </c>
-      <c r="B41" s="7">
+      <c r="B41" s="5">
         <v>76.290000000000006</v>
       </c>
       <c r="C41" s="2"/>
       <c r="E41">
         <f t="shared" si="3"/>
-        <v>71.574578319999986</v>
+        <v>-11.479999999999976</v>
       </c>
       <c r="F41" s="3">
         <f t="shared" si="2"/>
-        <v>18.357209429572563</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>7</v>
       </c>
-      <c r="B42" s="7">
+      <c r="B42" s="5">
         <v>76.989999999999995</v>
       </c>
       <c r="C42" s="2"/>
       <c r="E42">
         <f t="shared" si="3"/>
-        <v>70.829086753599981</v>
+        <v>-2.8100000000000165</v>
       </c>
       <c r="F42" s="3">
         <f t="shared" si="2"/>
-        <v>17.611717863172558</v>
+        <v>8.6699999999999591</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>8</v>
       </c>
-      <c r="B43" s="7">
+      <c r="B43" s="5">
         <v>80.5</v>
       </c>
       <c r="C43" s="2"/>
       <c r="E43">
         <f t="shared" si="3"/>
-        <v>72.852305018528</v>
+        <v>3.9900000000000091</v>
       </c>
       <c r="F43" s="3">
         <f t="shared" si="2"/>
-        <v>19.634936128100577</v>
+        <v>15.469999999999985</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>9</v>
       </c>
-      <c r="B44" s="7">
+      <c r="B44" s="5">
         <v>80.02</v>
       </c>
       <c r="C44" s="2"/>
       <c r="E44">
         <f t="shared" si="3"/>
-        <v>70.924858918157426</v>
+        <v>-6.3300000000000125</v>
       </c>
       <c r="F44" s="3">
         <f t="shared" si="2"/>
-        <v>17.707490027730003</v>
+        <v>5.1499999999999631</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>10</v>
       </c>
-      <c r="B45" s="7">
+      <c r="B45" s="5">
         <v>85.87</v>
       </c>
       <c r="C45" s="2"/>
       <c r="E45">
         <f t="shared" si="3"/>
-        <v>75.239361739794305</v>
+        <v>9.6800000000000068</v>
       </c>
       <c r="F45" s="3">
         <f t="shared" si="2"/>
-        <v>22.021992849366882</v>
+        <v>21.159999999999982</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>11</v>
       </c>
-      <c r="B46" s="7">
+      <c r="B46" s="5">
         <v>82.04</v>
       </c>
       <c r="C46" s="2"/>
       <c r="E46">
         <f t="shared" si="3"/>
-        <v>69.981174504998407</v>
+        <v>-2.9399999999999977</v>
       </c>
       <c r="F46" s="3">
         <f t="shared" si="2"/>
-        <v>16.763805614570984</v>
+        <v>8.5399999999999778</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>12</v>
       </c>
-      <c r="B47" s="7">
+      <c r="B47" s="5">
         <v>81.150000000000006</v>
       </c>
       <c r="C47" s="2"/>
       <c r="E47">
         <f t="shared" si="3"/>
-        <v>67.709351014898417</v>
+        <v>-1.0999999999999943</v>
       </c>
       <c r="F47" s="3">
         <f t="shared" si="2"/>
-        <v>14.491982124470994</v>
+        <v>10.379999999999981</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>13</v>
       </c>
-      <c r="B48" s="7">
+      <c r="B48" s="5">
         <v>81.36</v>
       </c>
       <c r="C48" s="2"/>
       <c r="E48">
         <f t="shared" si="3"/>
-        <v>66.560963994600442</v>
+        <v>-0.12000000000000455</v>
       </c>
       <c r="F48" s="3">
         <f t="shared" si="2"/>
-        <v>13.343595104173019</v>
+        <v>11.359999999999971</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>14</v>
       </c>
-      <c r="B49" s="7">
+      <c r="B49" s="5">
         <v>81.69</v>
       </c>
       <c r="C49" s="2"/>
       <c r="E49">
         <f t="shared" si="3"/>
-        <v>65.553144714708438</v>
+        <v>-5.8299999999999983</v>
       </c>
       <c r="F49" s="3">
         <f t="shared" si="2"/>
-        <v>12.335775824281015</v>
+        <v>5.6499999999999773</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>15</v>
       </c>
-      <c r="B50" s="7">
+      <c r="B50" s="5">
         <v>87.85</v>
       </c>
       <c r="C50" s="2"/>
       <c r="E50">
         <f t="shared" si="3"/>
-        <v>70.278881820414284</v>
+        <v>10.329999999999984</v>
       </c>
       <c r="F50" s="3">
         <f t="shared" si="2"/>
-        <v>17.061512929986861</v>
+        <v>21.80999999999996</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>16</v>
       </c>
-      <c r="B51" s="7">
+      <c r="B51" s="5">
         <v>83.68</v>
       </c>
       <c r="C51" s="2"/>
       <c r="E51">
         <f t="shared" si="3"/>
-        <v>64.786704184006012</v>
+        <v>-3.5099999999999767</v>
       </c>
       <c r="F51" s="3">
         <f t="shared" si="2"/>
-        <v>11.56933529357859</v>
+        <v>7.9699999999999989</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>17</v>
       </c>
-      <c r="B52" s="7">
+      <c r="B52" s="5">
         <v>83.02</v>
       </c>
       <c r="C52" s="2"/>
       <c r="E52">
         <f t="shared" si="3"/>
-        <v>62.844170100325883</v>
+        <v>-0.17000000000001592</v>
       </c>
       <c r="F52" s="3">
         <f t="shared" si="2"/>
-        <v>9.6268012098984599</v>
+        <v>11.30999999999996</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>18</v>
       </c>
-      <c r="B53" s="7">
+      <c r="B53" s="5">
         <v>82.53</v>
       </c>
       <c r="C53" s="2"/>
       <c r="E53">
         <f t="shared" si="3"/>
-        <v>61.107086698319385</v>
+        <v>-2.1099999999999994</v>
       </c>
       <c r="F53" s="3">
         <f t="shared" si="2"/>
-        <v>7.8897178078919623</v>
+        <v>9.3699999999999761</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>19</v>
       </c>
-      <c r="B54" s="7">
+      <c r="B54" s="5">
         <v>84.15</v>
       </c>
       <c r="C54" s="2"/>
       <c r="E54">
         <f t="shared" si="3"/>
-        <v>61.472544964353006</v>
+        <v>0.61000000000001364</v>
       </c>
       <c r="F54" s="3">
         <f t="shared" si="2"/>
-        <v>8.2551760739255826</v>
+        <v>12.089999999999989</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>20</v>
       </c>
-      <c r="B55" s="7">
+      <c r="B55" s="5">
         <v>85.16</v>
       </c>
       <c r="C55" s="2"/>
       <c r="E55">
         <f t="shared" si="3"/>
-        <v>61.232894065065935</v>
+        <v>2.0699999999999932</v>
       </c>
       <c r="F55" s="3">
         <f t="shared" si="2"/>
-        <v>8.0155251746385119</v>
+        <v>13.549999999999969</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>21</v>
       </c>
-      <c r="B56" s="7">
+      <c r="B56" s="5">
         <v>84.1</v>
       </c>
       <c r="C56" s="2"/>
       <c r="E56">
         <f t="shared" si="3"/>
-        <v>58.969436183764628</v>
+        <v>9.9999999999909051E-3</v>
       </c>
       <c r="F56" s="3">
         <f t="shared" si="2"/>
-        <v>5.7520672933372055</v>
+        <v>11.489999999999966</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>22</v>
       </c>
-      <c r="B57" s="7">
+      <c r="B57" s="5">
         <v>83.03</v>
       </c>
       <c r="C57" s="2"/>
       <c r="E57">
         <f t="shared" si="3"/>
-        <v>56.74144746008934</v>
+        <v>-3.4499999999999886</v>
       </c>
       <c r="F57" s="3">
         <f t="shared" si="2"/>
-        <v>3.524078569661917</v>
+        <v>8.0299999999999869</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>23</v>
       </c>
-      <c r="B58" s="7">
+      <c r="B58" s="5">
         <v>85.41</v>
       </c>
       <c r="C58" s="2"/>
       <c r="E58">
         <f t="shared" si="3"/>
-        <v>57.939018510887557</v>
+        <v>3.4599999999999937</v>
       </c>
       <c r="F58" s="3">
         <f t="shared" si="2"/>
-        <v>4.7216496204601341</v>
+        <v>14.939999999999969</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>24</v>
       </c>
-      <c r="B59" s="7">
+      <c r="B59" s="5">
         <v>84.33</v>
       </c>
       <c r="C59" s="2"/>
       <c r="E59">
         <f t="shared" si="3"/>
-        <v>55.721838140669803</v>
+        <v>-5.4099999999999966</v>
       </c>
       <c r="F59" s="3">
         <f t="shared" si="2"/>
-        <v>2.50446925024238</v>
+        <v>6.069999999999979</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>25</v>
       </c>
-      <c r="B60" s="7">
+      <c r="B60" s="5">
         <v>88.66</v>
       </c>
       <c r="C60" s="2"/>
       <c r="E60">
         <f t="shared" si="3"/>
-        <v>58.850801377856406</v>
+        <v>5.0099999999999909</v>
       </c>
       <c r="F60" s="3">
         <f t="shared" si="2"/>
-        <v>5.6334324874289834</v>
+        <v>16.489999999999966</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>26</v>
       </c>
-      <c r="B61" s="7">
+      <c r="B61" s="5">
         <v>87.98</v>
       </c>
       <c r="C61" s="2"/>
       <c r="E61">
         <f t="shared" si="3"/>
-        <v>57.00738535029928</v>
+        <v>1.1300000000000097</v>
       </c>
       <c r="F61" s="3">
         <f t="shared" si="2"/>
-        <v>3.7900164598718575</v>
-      </c>
-      <c r="J61" s="7">
+        <v>12.609999999999985</v>
+      </c>
+      <c r="J61" s="5">
         <v>87.69</v>
       </c>
     </row>
@@ -6233,19 +6233,19 @@
       <c r="A62" s="2">
         <v>27</v>
       </c>
-      <c r="B62" s="7">
+      <c r="B62" s="5">
         <v>86.17</v>
       </c>
       <c r="C62" s="2"/>
       <c r="E62">
         <f t="shared" si="3"/>
-        <v>54.093437643293299</v>
+        <v>-2.019999999999996</v>
       </c>
       <c r="F62" s="3">
         <f t="shared" si="2"/>
-        <v>0.87606875286587638</v>
-      </c>
-      <c r="J62" s="7">
+        <v>9.4599999999999795</v>
+      </c>
+      <c r="J62" s="5">
         <v>86.87</v>
       </c>
     </row>
@@ -6253,19 +6253,19 @@
       <c r="A63" s="2">
         <v>28</v>
       </c>
-      <c r="B63" s="7">
+      <c r="B63" s="5">
         <v>86.38</v>
       </c>
       <c r="C63" s="2"/>
       <c r="E63">
         <f t="shared" si="3"/>
-        <v>53.217368890427423</v>
+        <v>-2.730000000000004</v>
       </c>
       <c r="F63" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J63" s="7">
+        <v>8.7499999999999716</v>
+      </c>
+      <c r="J63" s="5">
         <v>86.45</v>
       </c>
     </row>
@@ -6273,19 +6273,19 @@
       <c r="A64" s="2">
         <v>29</v>
       </c>
-      <c r="B64" s="7">
+      <c r="B64" s="5">
         <v>89.32</v>
       </c>
       <c r="C64" s="2"/>
       <c r="E64">
         <f t="shared" si="3"/>
-        <v>55.034221512618871</v>
+        <v>2.9999999999999858</v>
       </c>
       <c r="F64" s="3">
         <f t="shared" si="2"/>
-        <v>1.8168526221914476</v>
-      </c>
-      <c r="J64" s="8">
+        <v>14.479999999999961</v>
+      </c>
+      <c r="J64" s="6">
         <v>84.64</v>
       </c>
     </row>
@@ -6293,17 +6293,17 @@
       <c r="A65" s="2">
         <v>30</v>
       </c>
-      <c r="B65" s="8">
+      <c r="B65" s="6">
         <v>89.26</v>
       </c>
       <c r="C65" s="2"/>
       <c r="E65">
-        <f t="shared" si="3"/>
-        <v>53.874737082366515</v>
+        <f>2*B65 -  B64 - B65</f>
+        <v>-5.9999999999988063E-2</v>
       </c>
       <c r="F65" s="3">
         <f t="shared" si="2"/>
-        <v>0.65736819193909213</v>
+        <v>11.419999999999987</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -6312,21 +6312,21 @@
       </c>
       <c r="F67" s="3">
         <f>MAX(F38:F65)</f>
-        <v>30.597915109572568</v>
+        <v>32.119999999999962</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E68" s="3">
         <f>MIN(E38:E65)</f>
-        <v>53.217368890427423</v>
+        <v>-11.479999999999976</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
-      <c r="B71" s="5" t="s">
+      <c r="B71" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C71" s="6" t="s">
+      <c r="C71" s="10" t="s">
         <v>2</v>
       </c>
     </row>
@@ -6334,438 +6334,438 @@
       <c r="A72" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B72" s="5"/>
-      <c r="C72" s="6"/>
+      <c r="B72" s="9"/>
+      <c r="C72" s="10"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>3</v>
       </c>
-      <c r="B73" s="7">
+      <c r="B73" s="5">
         <v>72.72</v>
       </c>
       <c r="C73" s="2"/>
       <c r="E73" s="3">
-        <f>B73</f>
-        <v>72.72</v>
+        <f>2*B73-B74-B73</f>
+        <v>-4.0900000000000034</v>
       </c>
       <c r="F73" s="3">
         <f>E73-E$103</f>
-        <v>21.316142997902006</v>
+        <v>6.8599999999999852</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>4</v>
       </c>
-      <c r="B74" s="7">
+      <c r="B74" s="5">
         <v>76.81</v>
       </c>
       <c r="C74" s="2"/>
       <c r="E74">
-        <f>$C$3*(E73 + B74 - B73)</f>
-        <v>75.273799999999994</v>
+        <f>2*B74 -  B73 - B75</f>
+        <v>-3.4599999999999937</v>
       </c>
       <c r="F74" s="3">
         <f t="shared" ref="F74:F96" si="4">E74-E$103</f>
-        <v>23.869942997902001</v>
+        <v>7.4899999999999949</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>5</v>
       </c>
-      <c r="B75" s="9">
+      <c r="B75" s="7">
         <v>84.36</v>
       </c>
       <c r="C75" s="2"/>
       <c r="E75">
-        <f t="shared" ref="E75:E93" si="5">$C$3*(E74 + B75 - B74)</f>
-        <v>81.167324000000008</v>
-      </c>
-      <c r="F75" s="10">
+        <f t="shared" ref="E75:E96" si="5">2*B75 -  B74 - B76</f>
+        <v>14.810000000000002</v>
+      </c>
+      <c r="F75" s="8">
         <f t="shared" si="4"/>
-        <v>29.763466997902015</v>
+        <v>25.759999999999991</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>6</v>
       </c>
-      <c r="B76" s="7">
+      <c r="B76" s="5">
         <v>77.099999999999994</v>
       </c>
       <c r="C76" s="2"/>
       <c r="E76">
         <f t="shared" si="5"/>
-        <v>72.429177519999996</v>
+        <v>-10.840000000000018</v>
       </c>
       <c r="F76" s="3">
         <f t="shared" si="4"/>
-        <v>21.025320517902003</v>
+        <v>0.10999999999997101</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>7</v>
       </c>
-      <c r="B77" s="7">
+      <c r="B77" s="5">
         <v>80.680000000000007</v>
       </c>
       <c r="C77" s="2"/>
       <c r="E77">
         <f t="shared" si="5"/>
-        <v>74.488993969600003</v>
+        <v>3.1400000000000148</v>
       </c>
       <c r="F77" s="3">
         <f t="shared" si="4"/>
-        <v>23.085136967502009</v>
+        <v>14.090000000000003</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>8</v>
       </c>
-      <c r="B78" s="7">
+      <c r="B78" s="5">
         <v>81.12</v>
       </c>
       <c r="C78" s="2"/>
       <c r="E78">
         <f t="shared" si="5"/>
-        <v>73.430414090208018</v>
+        <v>-0.79999999999999716</v>
       </c>
       <c r="F78" s="3">
         <f t="shared" si="4"/>
-        <v>22.026557088110025</v>
+        <v>10.149999999999991</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>9</v>
       </c>
-      <c r="B79" s="7">
+      <c r="B79" s="5">
         <v>82.36</v>
       </c>
       <c r="C79" s="2"/>
       <c r="E79">
         <f t="shared" si="5"/>
-        <v>73.177005808403834</v>
+        <v>2.25</v>
       </c>
       <c r="F79" s="3">
         <f t="shared" si="4"/>
-        <v>21.773148806305841</v>
+        <v>13.199999999999989</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>10</v>
       </c>
-      <c r="B80" s="7">
+      <c r="B80" s="5">
         <v>81.349999999999994</v>
       </c>
       <c r="C80" s="2"/>
       <c r="E80">
         <f t="shared" si="5"/>
-        <v>70.723665692235755</v>
+        <v>2.5299999999999869</v>
       </c>
       <c r="F80" s="3">
         <f t="shared" si="4"/>
-        <v>19.319808690137762</v>
+        <v>13.479999999999976</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>11</v>
       </c>
-      <c r="B81" s="7">
+      <c r="B81" s="5">
         <v>77.81</v>
       </c>
       <c r="C81" s="2"/>
       <c r="E81">
         <f t="shared" si="5"/>
-        <v>65.839992378391045</v>
+        <v>-10.749999999999986</v>
       </c>
       <c r="F81" s="3">
         <f t="shared" si="4"/>
-        <v>14.436135376293052</v>
+        <v>0.20000000000000284</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>12</v>
       </c>
-      <c r="B82" s="7">
+      <c r="B82" s="5">
         <v>85.02</v>
       </c>
       <c r="C82" s="2"/>
       <c r="E82">
         <f t="shared" si="5"/>
-        <v>71.588992530823219</v>
+        <v>6.0599999999999881</v>
       </c>
       <c r="F82" s="3">
         <f t="shared" si="4"/>
-        <v>20.185135528725226</v>
+        <v>17.009999999999977</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>13</v>
       </c>
-      <c r="B83" s="7">
+      <c r="B83" s="5">
         <v>86.17</v>
       </c>
       <c r="C83" s="2"/>
       <c r="E83">
         <f t="shared" si="5"/>
-        <v>71.28421268020675</v>
+        <v>4.7500000000000142</v>
       </c>
       <c r="F83" s="3">
         <f t="shared" si="4"/>
-        <v>19.880355678108756</v>
+        <v>15.700000000000003</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>14</v>
       </c>
-      <c r="B84" s="7">
+      <c r="B84" s="5">
         <v>82.57</v>
       </c>
       <c r="C84" s="2"/>
       <c r="E84">
         <f t="shared" si="5"/>
-        <v>66.330528426602598</v>
+        <v>-9.5200000000000102</v>
       </c>
       <c r="F84" s="3">
         <f t="shared" si="4"/>
-        <v>14.926671424504605</v>
+        <v>1.4299999999999784</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>15</v>
       </c>
-      <c r="B85" s="7">
+      <c r="B85" s="5">
         <v>88.49</v>
       </c>
       <c r="C85" s="2"/>
       <c r="E85">
         <f t="shared" si="5"/>
-        <v>70.805517858070559</v>
+        <v>8.2199999999999989</v>
       </c>
       <c r="F85" s="3">
         <f t="shared" si="4"/>
-        <v>19.401660855972565</v>
+        <v>19.169999999999987</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>16</v>
       </c>
-      <c r="B86" s="7">
+      <c r="B86" s="5">
         <v>86.19</v>
       </c>
       <c r="C86" s="2"/>
       <c r="E86">
         <f t="shared" si="5"/>
-        <v>67.135407500909167</v>
+        <v>0.34000000000000341</v>
       </c>
       <c r="F86" s="3">
         <f t="shared" si="4"/>
-        <v>15.731550498811174</v>
+        <v>11.289999999999992</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>17</v>
       </c>
-      <c r="B87" s="7">
+      <c r="B87" s="5">
         <v>83.55</v>
       </c>
       <c r="C87" s="2"/>
       <c r="E87">
         <f t="shared" si="5"/>
-        <v>63.205499350890967</v>
+        <v>-1.6200000000000045</v>
       </c>
       <c r="F87" s="3">
         <f t="shared" si="4"/>
-        <v>11.801642348792974</v>
+        <v>9.3299999999999841</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>18</v>
       </c>
-      <c r="B88" s="7">
+      <c r="B88" s="5">
         <v>82.53</v>
       </c>
       <c r="C88" s="2"/>
       <c r="E88">
         <f t="shared" si="5"/>
-        <v>60.941789363873141</v>
+        <v>-1.9299999999999926</v>
       </c>
       <c r="F88" s="3">
         <f t="shared" si="4"/>
-        <v>9.5379323617751481</v>
+        <v>9.019999999999996</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>19</v>
       </c>
-      <c r="B89" s="7">
+      <c r="B89" s="5">
         <v>83.44</v>
       </c>
       <c r="C89" s="2"/>
       <c r="E89">
         <f t="shared" si="5"/>
-        <v>60.614753576595675</v>
+        <v>6.6799999999999926</v>
       </c>
       <c r="F89" s="3">
         <f t="shared" si="4"/>
-        <v>9.2108965744976814</v>
+        <v>17.629999999999981</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>20</v>
       </c>
-      <c r="B90" s="7">
+      <c r="B90" s="5">
         <v>77.67</v>
       </c>
       <c r="C90" s="2"/>
       <c r="E90">
         <f t="shared" si="5"/>
-        <v>53.747858505063768</v>
+        <v>-10.949999999999989</v>
       </c>
       <c r="F90" s="3">
         <f t="shared" si="4"/>
-        <v>2.3440015029657744</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>21</v>
       </c>
-      <c r="B91" s="7">
+      <c r="B91" s="5">
         <v>82.85</v>
       </c>
       <c r="C91" s="2"/>
       <c r="E91">
         <f t="shared" si="5"/>
-        <v>57.749301334962475</v>
+        <v>9.6099999999999852</v>
       </c>
       <c r="F91" s="3">
         <f t="shared" si="4"/>
-        <v>6.3454443328644814</v>
+        <v>20.559999999999974</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>22</v>
       </c>
-      <c r="B92" s="7">
+      <c r="B92" s="5">
         <v>78.42</v>
       </c>
       <c r="C92" s="2"/>
       <c r="E92">
         <f t="shared" si="5"/>
-        <v>52.25291530826324</v>
+        <v>-4.6299999999999955</v>
       </c>
       <c r="F92" s="3">
         <f t="shared" si="4"/>
-        <v>0.84905830616524725</v>
+        <v>6.3199999999999932</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>23</v>
       </c>
-      <c r="B93" s="7">
+      <c r="B93" s="5">
         <v>78.62</v>
       </c>
       <c r="C93" s="2"/>
       <c r="E93">
         <f t="shared" si="5"/>
-        <v>51.403857002097993</v>
+        <v>-1.0099999999999909</v>
       </c>
       <c r="F93" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>9.9399999999999977</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>24</v>
       </c>
-      <c r="B94" s="7">
+      <c r="B94" s="5">
         <v>79.83</v>
       </c>
       <c r="C94" s="2"/>
-      <c r="E94" s="3">
-        <f>B94</f>
-        <v>79.83</v>
+      <c r="E94">
+        <f t="shared" si="5"/>
+        <v>2.3999999999999915</v>
       </c>
       <c r="F94" s="3">
         <f t="shared" si="4"/>
-        <v>28.426142997902005</v>
+        <v>13.34999999999998</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>25</v>
       </c>
-      <c r="B95" s="7">
+      <c r="B95" s="5">
         <v>78.64</v>
       </c>
       <c r="C95" s="2"/>
       <c r="E95">
-        <f>$C$3*(E94 + B95 - B94)</f>
-        <v>77.0672</v>
+        <f t="shared" si="5"/>
+        <v>-1.2199999999999989</v>
       </c>
       <c r="F95" s="3">
         <f t="shared" si="4"/>
-        <v>25.663342997902006</v>
+        <v>9.7299999999999898</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>26</v>
       </c>
-      <c r="B96" s="8">
+      <c r="B96" s="6">
         <v>78.67</v>
       </c>
       <c r="C96" s="2"/>
       <c r="E96">
-        <f t="shared" ref="E96" si="6">$C$3*(E95 + B96 - B95)</f>
-        <v>75.555256</v>
+        <f>2*B96 -  B95 - B96</f>
+        <v>3.0000000000001137E-2</v>
       </c>
       <c r="F96" s="3">
         <f t="shared" si="4"/>
-        <v>24.151398997902007</v>
+        <v>10.97999999999999</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
-      <c r="B97" s="7"/>
+      <c r="B97" s="5"/>
       <c r="C97" s="2"/>
       <c r="F97" s="3"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
-      <c r="B98" s="7"/>
+      <c r="B98" s="5"/>
       <c r="C98" s="2"/>
       <c r="F98" s="3"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
-      <c r="B99" s="7"/>
+      <c r="B99" s="5"/>
       <c r="C99" s="2"/>
       <c r="F99" s="3"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
-      <c r="B100" s="8"/>
+      <c r="B100" s="6"/>
       <c r="C100" s="2"/>
       <c r="F100" s="3"/>
     </row>
@@ -6775,21 +6775,21 @@
       </c>
       <c r="F102" s="3">
         <f>MAX(F73:F100)</f>
-        <v>29.763466997902015</v>
+        <v>25.759999999999991</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E103" s="3">
         <f>MIN(E73:E100)</f>
-        <v>51.403857002097993</v>
+        <v>-10.949999999999989</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="4"/>
-      <c r="B105" s="5" t="s">
+      <c r="B105" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C105" s="6" t="s">
+      <c r="C105" s="10" t="s">
         <v>2</v>
       </c>
     </row>
@@ -6797,483 +6797,483 @@
       <c r="A106" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B106" s="5"/>
-      <c r="C106" s="6"/>
+      <c r="B106" s="9"/>
+      <c r="C106" s="10"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>3</v>
       </c>
-      <c r="B107" s="7">
+      <c r="B107" s="5">
         <v>76.41</v>
       </c>
       <c r="C107" s="2"/>
       <c r="E107" s="3">
-        <f>B107</f>
-        <v>76.41</v>
+        <f>2*B107-B108-B107</f>
+        <v>-0.28000000000000114</v>
       </c>
       <c r="F107" s="3">
         <f>E107-E$137</f>
-        <v>18.29109864130178</v>
+        <v>5.9299999999999926</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>4</v>
       </c>
-      <c r="B108" s="7">
+      <c r="B108" s="5">
         <v>76.69</v>
       </c>
       <c r="C108" s="2"/>
       <c r="E108">
-        <f>$C$3*(E107 + B108 - B107)</f>
-        <v>75.156199999999998</v>
+        <f>2*B108 -  B107 - B109</f>
+        <v>-1.1599999999999966</v>
       </c>
       <c r="F108" s="3">
-        <f t="shared" ref="F108:F134" si="7">E108-E$137</f>
-        <v>17.037298641301781</v>
+        <f t="shared" ref="F108:F134" si="6">E108-E$137</f>
+        <v>5.0499999999999972</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>5</v>
       </c>
-      <c r="B109" s="7">
+      <c r="B109" s="5">
         <v>78.13</v>
       </c>
       <c r="C109" s="2"/>
       <c r="E109">
-        <f t="shared" ref="E109:E127" si="8">$C$3*(E108 + B109 - B108)</f>
-        <v>75.064276000000007</v>
+        <f t="shared" ref="E109:E134" si="7">2*B109 -  B108 - B110</f>
+        <v>-4.4000000000000057</v>
       </c>
       <c r="F109" s="3">
-        <f t="shared" si="7"/>
-        <v>16.94537464130179</v>
+        <f t="shared" si="6"/>
+        <v>1.8099999999999881</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>6</v>
       </c>
-      <c r="B110" s="9">
+      <c r="B110" s="7">
         <v>83.97</v>
       </c>
       <c r="C110" s="2"/>
       <c r="E110">
-        <f t="shared" si="8"/>
-        <v>79.286190480000002</v>
+        <f t="shared" si="7"/>
+        <v>10.799999999999997</v>
       </c>
       <c r="F110" s="3">
-        <f t="shared" si="7"/>
-        <v>21.167289121301785</v>
+        <f t="shared" si="6"/>
+        <v>17.009999999999991</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>7</v>
       </c>
-      <c r="B111" s="7">
+      <c r="B111" s="5">
         <v>79.010000000000005</v>
       </c>
       <c r="C111" s="2"/>
       <c r="E111">
-        <f t="shared" si="8"/>
-        <v>72.839666670400007</v>
+        <f t="shared" si="7"/>
+        <v>-6.2099999999999937</v>
       </c>
       <c r="F111" s="3">
-        <f t="shared" si="7"/>
-        <v>14.72076531170179</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>8</v>
       </c>
-      <c r="B112" s="7">
+      <c r="B112" s="5">
         <v>80.260000000000005</v>
       </c>
       <c r="C112" s="2"/>
       <c r="E112">
-        <f t="shared" si="8"/>
-        <v>72.607873336992</v>
+        <f t="shared" si="7"/>
+        <v>-0.67000000000000171</v>
       </c>
       <c r="F112" s="3">
-        <f t="shared" si="7"/>
-        <v>14.488971978293783</v>
+        <f t="shared" si="6"/>
+        <v>5.539999999999992</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>9</v>
       </c>
-      <c r="B113" s="7">
+      <c r="B113" s="5">
         <v>82.18</v>
       </c>
       <c r="C113" s="2"/>
       <c r="E113">
-        <f t="shared" si="8"/>
-        <v>73.037315870252144</v>
+        <f t="shared" si="7"/>
+        <v>1.460000000000008</v>
       </c>
       <c r="F113" s="3">
-        <f t="shared" si="7"/>
-        <v>14.918414511553927</v>
+        <f t="shared" si="6"/>
+        <v>7.6700000000000017</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>10</v>
       </c>
-      <c r="B114" s="7">
+      <c r="B114" s="5">
         <v>82.64</v>
       </c>
       <c r="C114" s="2"/>
       <c r="E114">
-        <f t="shared" si="8"/>
-        <v>72.027369552847077</v>
+        <f t="shared" si="7"/>
+        <v>-2.2199999999999989</v>
       </c>
       <c r="F114" s="3">
-        <f t="shared" si="7"/>
-        <v>13.90846819414886</v>
+        <f t="shared" si="6"/>
+        <v>3.9899999999999949</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>11</v>
       </c>
-      <c r="B115" s="7">
+      <c r="B115" s="5">
         <v>85.32</v>
       </c>
       <c r="C115" s="2"/>
       <c r="E115">
-        <f t="shared" si="8"/>
-        <v>73.213222161790114</v>
+        <f t="shared" si="7"/>
+        <v>3.7399999999999807</v>
       </c>
       <c r="F115" s="3">
-        <f t="shared" si="7"/>
-        <v>15.094320803091897</v>
+        <f t="shared" si="6"/>
+        <v>9.9499999999999744</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>12</v>
       </c>
-      <c r="B116" s="7">
+      <c r="B116" s="5">
         <v>84.26</v>
       </c>
       <c r="C116" s="2"/>
       <c r="E116">
-        <f t="shared" si="8"/>
-        <v>70.710157718554328</v>
+        <f t="shared" si="7"/>
+        <v>0.87000000000001876</v>
       </c>
       <c r="F116" s="3">
-        <f t="shared" si="7"/>
-        <v>12.591256359856111</v>
+        <f t="shared" si="6"/>
+        <v>7.0800000000000125</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>13</v>
       </c>
-      <c r="B117" s="7">
+      <c r="B117" s="5">
         <v>82.33</v>
       </c>
       <c r="C117" s="2"/>
       <c r="E117">
-        <f t="shared" si="8"/>
-        <v>67.404554564183229</v>
+        <f t="shared" si="7"/>
+        <v>-1.480000000000004</v>
       </c>
       <c r="F117" s="3">
-        <f t="shared" si="7"/>
-        <v>9.2856532054850121</v>
+        <f t="shared" si="6"/>
+        <v>4.7299999999999898</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>14</v>
       </c>
-      <c r="B118" s="7">
+      <c r="B118" s="5">
         <v>81.88</v>
       </c>
       <c r="C118" s="2"/>
       <c r="E118">
-        <f t="shared" si="8"/>
-        <v>65.615463472899563</v>
+        <f t="shared" si="7"/>
+        <v>-3.3800000000000097</v>
       </c>
       <c r="F118" s="3">
-        <f t="shared" si="7"/>
-        <v>7.4965621142013461</v>
+        <f t="shared" si="6"/>
+        <v>2.8299999999999841</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>15</v>
       </c>
-      <c r="B119" s="7">
+      <c r="B119" s="5">
         <v>84.81</v>
       </c>
       <c r="C119" s="2"/>
       <c r="E119">
-        <f t="shared" si="8"/>
-        <v>67.174554203441573</v>
+        <f t="shared" si="7"/>
+        <v>2.9900000000000091</v>
       </c>
       <c r="F119" s="3">
-        <f t="shared" si="7"/>
-        <v>9.0556528447433564</v>
+        <f t="shared" si="6"/>
+        <v>9.2000000000000028</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>16</v>
       </c>
-      <c r="B120" s="7">
+      <c r="B120" s="5">
         <v>84.75</v>
       </c>
       <c r="C120" s="2"/>
       <c r="E120">
-        <f t="shared" si="8"/>
-        <v>65.772263119372738</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="F120" s="3">
-        <f t="shared" si="7"/>
-        <v>7.653361760674521</v>
+        <f t="shared" si="6"/>
+        <v>6.2099999999999937</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>17</v>
       </c>
-      <c r="B121" s="7">
+      <c r="B121" s="5">
         <v>84.69</v>
       </c>
       <c r="C121" s="2"/>
       <c r="E121">
-        <f t="shared" si="8"/>
-        <v>64.398017856985263</v>
+        <f t="shared" si="7"/>
+        <v>-0.56000000000000227</v>
       </c>
       <c r="F121" s="3">
-        <f t="shared" si="7"/>
-        <v>6.2791164982870455</v>
+        <f t="shared" si="6"/>
+        <v>5.6499999999999915</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>18</v>
       </c>
-      <c r="B122" s="7">
+      <c r="B122" s="5">
         <v>85.19</v>
       </c>
       <c r="C122" s="2"/>
       <c r="E122">
-        <f t="shared" si="8"/>
-        <v>63.600057499845555</v>
+        <f t="shared" si="7"/>
+        <v>-0.59000000000000341</v>
       </c>
       <c r="F122" s="3">
-        <f t="shared" si="7"/>
-        <v>5.4811561411473377</v>
+        <f t="shared" si="6"/>
+        <v>5.6199999999999903</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>19</v>
       </c>
-      <c r="B123" s="7">
+      <c r="B123" s="5">
         <v>86.28</v>
       </c>
       <c r="C123" s="2"/>
       <c r="E123">
-        <f t="shared" si="8"/>
-        <v>63.396256349848642</v>
+        <f t="shared" si="7"/>
+        <v>3.6000000000000085</v>
       </c>
       <c r="F123" s="3">
-        <f t="shared" si="7"/>
-        <v>5.2773549911504247</v>
+        <f t="shared" si="6"/>
+        <v>9.8100000000000023</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>20</v>
       </c>
-      <c r="B124" s="7">
+      <c r="B124" s="5">
         <v>83.77</v>
       </c>
       <c r="C124" s="2"/>
       <c r="E124">
-        <f t="shared" si="8"/>
-        <v>59.668531222851676</v>
+        <f t="shared" si="7"/>
+        <v>-4.3700000000000045</v>
       </c>
       <c r="F124" s="3">
-        <f t="shared" si="7"/>
-        <v>1.5496298641534594</v>
+        <f t="shared" si="6"/>
+        <v>1.8399999999999892</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>21</v>
       </c>
-      <c r="B125" s="7">
+      <c r="B125" s="5">
         <v>85.63</v>
       </c>
       <c r="C125" s="2"/>
       <c r="E125">
-        <f t="shared" si="8"/>
-        <v>60.297960598394631</v>
+        <f t="shared" si="7"/>
+        <v>2.0099999999999909</v>
       </c>
       <c r="F125" s="3">
-        <f t="shared" si="7"/>
-        <v>2.1790592396964144</v>
+        <f t="shared" si="6"/>
+        <v>8.2199999999999847</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>22</v>
       </c>
-      <c r="B126" s="7">
+      <c r="B126" s="5">
         <v>85.48</v>
       </c>
       <c r="C126" s="2"/>
       <c r="E126">
-        <f t="shared" si="8"/>
-        <v>58.945001386426739</v>
+        <f t="shared" si="7"/>
+        <v>-0.50999999999999091</v>
       </c>
       <c r="F126" s="3">
-        <f t="shared" si="7"/>
-        <v>0.82610002772852198</v>
+        <f t="shared" si="6"/>
+        <v>5.7000000000000028</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>23</v>
       </c>
-      <c r="B127" s="7">
+      <c r="B127" s="5">
         <v>85.84</v>
       </c>
       <c r="C127" s="2"/>
       <c r="E127">
-        <f t="shared" si="8"/>
-        <v>58.118901358698217</v>
+        <f t="shared" si="7"/>
+        <v>-0.17999999999999261</v>
       </c>
       <c r="F127" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>6.0300000000000011</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>24</v>
       </c>
-      <c r="B128" s="7">
+      <c r="B128" s="5">
         <v>86.38</v>
       </c>
       <c r="C128" s="2"/>
-      <c r="E128" s="3">
-        <f>B128</f>
-        <v>86.38</v>
+      <c r="E128">
+        <f t="shared" si="7"/>
+        <v>0.25999999999999091</v>
       </c>
       <c r="F128" s="3">
-        <f t="shared" si="7"/>
-        <v>28.261098641301778</v>
+        <f t="shared" si="6"/>
+        <v>6.4699999999999847</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>25</v>
       </c>
-      <c r="B129" s="7">
+      <c r="B129" s="5">
         <v>86.66</v>
       </c>
       <c r="C129" s="2"/>
       <c r="E129">
-        <f>$C$3*(E128 + B129 - B128)</f>
-        <v>84.9268</v>
+        <f t="shared" si="7"/>
+        <v>-1.2900000000000063</v>
       </c>
       <c r="F129" s="3">
-        <f t="shared" si="7"/>
-        <v>26.807898641301783</v>
+        <f t="shared" si="6"/>
+        <v>4.9199999999999875</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>26</v>
       </c>
-      <c r="B130" s="7">
+      <c r="B130" s="5">
         <v>88.23</v>
       </c>
       <c r="C130" s="2"/>
       <c r="E130">
-        <f t="shared" ref="E130" si="9">$C$3*(E129 + B130 - B129)</f>
-        <v>84.766864000000012</v>
+        <f t="shared" si="7"/>
+        <v>2.2400000000000091</v>
       </c>
       <c r="F130" s="3">
-        <f t="shared" si="7"/>
-        <v>26.647962641301795</v>
+        <f t="shared" si="6"/>
+        <v>8.4500000000000028</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>27</v>
       </c>
-      <c r="B131" s="7">
+      <c r="B131" s="5">
         <v>87.56</v>
       </c>
       <c r="C131" s="2"/>
-      <c r="E131" s="3">
-        <f>B131</f>
-        <v>87.56</v>
+      <c r="E131">
+        <f t="shared" si="7"/>
+        <v>-0.18999999999999773</v>
       </c>
       <c r="F131" s="3">
-        <f t="shared" si="7"/>
-        <v>29.441098641301785</v>
+        <f t="shared" si="6"/>
+        <v>6.019999999999996</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>28</v>
       </c>
-      <c r="B132" s="7">
+      <c r="B132" s="5">
         <v>87.08</v>
       </c>
       <c r="C132" s="2"/>
       <c r="E132">
-        <f>$C$3*(E131 + B132 - B131)</f>
-        <v>85.338399999999979</v>
+        <f t="shared" si="7"/>
+        <v>0.36999999999999034</v>
       </c>
       <c r="F132" s="3">
-        <f t="shared" si="7"/>
-        <v>27.219498641301762</v>
+        <f t="shared" si="6"/>
+        <v>6.5799999999999841</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>29</v>
       </c>
-      <c r="B133" s="7">
+      <c r="B133" s="5">
         <v>86.23</v>
       </c>
       <c r="C133" s="2"/>
       <c r="E133">
-        <f t="shared" ref="E133:E134" si="10">$C$3*(E132 + B133 - B132)</f>
-        <v>82.798631999999998</v>
+        <f t="shared" si="7"/>
+        <v>-1.5299999999999869</v>
       </c>
       <c r="F133" s="3">
-        <f t="shared" si="7"/>
-        <v>24.679730641301781</v>
+        <f t="shared" si="6"/>
+        <v>4.6800000000000068</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>30</v>
       </c>
-      <c r="B134" s="8">
+      <c r="B134" s="6">
         <v>86.91</v>
       </c>
       <c r="C134" s="2"/>
       <c r="E134">
-        <f t="shared" si="10"/>
-        <v>81.809059359999992</v>
+        <f>2*B134 -  B133 - B134</f>
+        <v>0.67999999999999261</v>
       </c>
       <c r="F134" s="3">
-        <f t="shared" si="7"/>
-        <v>23.690158001301775</v>
+        <f t="shared" si="6"/>
+        <v>6.8899999999999864</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
@@ -7282,21 +7282,21 @@
       </c>
       <c r="F136" s="3">
         <f>MAX(F107:F134)</f>
-        <v>29.441098641301785</v>
+        <v>17.009999999999991</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E137" s="3">
         <f>MIN(E107:E134)</f>
-        <v>58.118901358698217</v>
+        <v>-6.2099999999999937</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="4"/>
-      <c r="B141" s="5" t="s">
+      <c r="B141" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C141" s="6" t="s">
+      <c r="C141" s="10" t="s">
         <v>2</v>
       </c>
     </row>
@@ -7304,1443 +7304,1443 @@
       <c r="A142" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B142" s="5"/>
-      <c r="C142" s="6"/>
+      <c r="B142" s="9"/>
+      <c r="C142" s="10"/>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <v>3</v>
       </c>
-      <c r="B143" s="7">
+      <c r="B143" s="5">
         <v>70.12</v>
       </c>
       <c r="C143" s="2"/>
       <c r="E143" s="3">
-        <f>B143</f>
-        <v>70.12</v>
+        <f>2*B143-B144-B143</f>
+        <v>-0.94999999999998863</v>
       </c>
       <c r="F143" s="3">
         <f>E143-E$232</f>
-        <v>51.710019942234034</v>
+        <v>4.4800000000000182</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
         <v>4</v>
       </c>
-      <c r="B144" s="7">
+      <c r="B144" s="5">
         <v>71.069999999999993</v>
       </c>
       <c r="C144" s="2"/>
       <c r="E144">
-        <f t="shared" ref="E144:E207" si="11">$C$3*(E143 + B144 - B143)</f>
-        <v>69.648599999999988</v>
+        <f>2*B144 -  B143 - B145</f>
+        <v>1.1699999999999875</v>
       </c>
       <c r="F144" s="3">
-        <f t="shared" ref="F144:F207" si="12">E144-E$232</f>
-        <v>51.238619942234017</v>
+        <f t="shared" ref="F144:F207" si="8">E144-E$232</f>
+        <v>6.5999999999999943</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
         <v>5</v>
       </c>
-      <c r="B145" s="7">
+      <c r="B145" s="5">
         <v>70.849999999999994</v>
       </c>
       <c r="C145" s="2"/>
       <c r="E145">
-        <f t="shared" si="11"/>
-        <v>68.040027999999992</v>
+        <f t="shared" ref="E145:E208" si="9">2*B145 -  B144 - B146</f>
+        <v>0.81999999999999318</v>
       </c>
       <c r="F145" s="3">
-        <f t="shared" si="12"/>
-        <v>49.630047942234022</v>
+        <f t="shared" si="8"/>
+        <v>6.25</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>6</v>
       </c>
-      <c r="B146" s="7">
+      <c r="B146" s="5">
         <v>69.81</v>
       </c>
       <c r="C146" s="2"/>
       <c r="E146">
-        <f t="shared" si="11"/>
-        <v>65.660027440000007</v>
+        <f t="shared" si="9"/>
+        <v>-3.9899999999999949</v>
       </c>
       <c r="F146" s="3">
-        <f t="shared" si="12"/>
-        <v>47.250047382234037</v>
+        <f t="shared" si="8"/>
+        <v>1.4400000000000119</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
         <v>7</v>
       </c>
-      <c r="B147" s="7">
+      <c r="B147" s="5">
         <v>72.760000000000005</v>
       </c>
       <c r="C147" s="2"/>
       <c r="E147">
-        <f t="shared" si="11"/>
-        <v>67.237826891200015</v>
+        <f t="shared" si="9"/>
+        <v>1.1700000000000017</v>
       </c>
       <c r="F147" s="3">
-        <f t="shared" si="12"/>
-        <v>48.827846833434045</v>
+        <f t="shared" si="8"/>
+        <v>6.6000000000000085</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
         <v>8</v>
       </c>
-      <c r="B148" s="7">
+      <c r="B148" s="5">
         <v>74.540000000000006</v>
       </c>
       <c r="C148" s="2"/>
       <c r="E148">
-        <f t="shared" si="11"/>
-        <v>67.637470353376017</v>
+        <f t="shared" si="9"/>
+        <v>1.1900000000000119</v>
       </c>
       <c r="F148" s="3">
-        <f t="shared" si="12"/>
-        <v>49.227490295610046</v>
+        <f t="shared" si="8"/>
+        <v>6.6200000000000188</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
         <v>9</v>
       </c>
-      <c r="B149" s="7">
+      <c r="B149" s="5">
         <v>75.13</v>
       </c>
       <c r="C149" s="2"/>
       <c r="E149">
-        <f t="shared" si="11"/>
-        <v>66.862920946308478</v>
+        <f t="shared" si="9"/>
+        <v>2.8299999999999841</v>
       </c>
       <c r="F149" s="3">
-        <f t="shared" si="12"/>
-        <v>48.452940888542507</v>
+        <f t="shared" si="8"/>
+        <v>8.2599999999999909</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
         <v>10</v>
       </c>
-      <c r="B150" s="7">
+      <c r="B150" s="5">
         <v>72.89</v>
       </c>
       <c r="C150" s="2"/>
       <c r="E150">
-        <f t="shared" si="11"/>
-        <v>63.330462527382309</v>
+        <f t="shared" si="9"/>
+        <v>-3.5799999999999983</v>
       </c>
       <c r="F150" s="3">
-        <f t="shared" si="12"/>
-        <v>44.920482469616339</v>
+        <f t="shared" si="8"/>
+        <v>1.8500000000000085</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
         <v>11</v>
       </c>
-      <c r="B151" s="7">
+      <c r="B151" s="5">
         <v>74.23</v>
       </c>
       <c r="C151" s="2"/>
       <c r="E151">
-        <f t="shared" si="11"/>
-        <v>63.377053276834651</v>
+        <f t="shared" si="9"/>
+        <v>-0.19999999999998863</v>
       </c>
       <c r="F151" s="3">
-        <f t="shared" si="12"/>
-        <v>44.967073219068681</v>
+        <f t="shared" si="8"/>
+        <v>5.2300000000000182</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
         <v>12</v>
       </c>
-      <c r="B152" s="7">
+      <c r="B152" s="5">
         <v>75.77</v>
       </c>
       <c r="C152" s="2"/>
       <c r="E152">
-        <f t="shared" si="11"/>
-        <v>63.61871221129794</v>
+        <f t="shared" si="9"/>
+        <v>3.0899999999999892</v>
       </c>
       <c r="F152" s="3">
-        <f t="shared" si="12"/>
-        <v>45.208732153531969</v>
+        <f t="shared" si="8"/>
+        <v>8.519999999999996</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
         <v>13</v>
       </c>
-      <c r="B153" s="7">
+      <c r="B153" s="5">
         <v>74.22</v>
       </c>
       <c r="C153" s="2"/>
       <c r="E153">
-        <f t="shared" si="11"/>
-        <v>60.82733796707199</v>
+        <f t="shared" si="9"/>
+        <v>-2.539999999999992</v>
       </c>
       <c r="F153" s="3">
-        <f t="shared" si="12"/>
-        <v>42.41735790930602</v>
+        <f t="shared" si="8"/>
+        <v>2.8900000000000148</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
         <v>14</v>
       </c>
-      <c r="B154" s="7">
+      <c r="B154" s="5">
         <v>75.209999999999994</v>
       </c>
       <c r="C154" s="2"/>
       <c r="E154">
-        <f t="shared" si="11"/>
-        <v>60.580991207730534</v>
+        <f t="shared" si="9"/>
+        <v>1.6999999999999886</v>
       </c>
       <c r="F154" s="3">
-        <f t="shared" si="12"/>
-        <v>42.171011149964563</v>
+        <f t="shared" si="8"/>
+        <v>7.1299999999999955</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
         <v>15</v>
       </c>
-      <c r="B155" s="7">
+      <c r="B155" s="5">
         <v>74.5</v>
       </c>
       <c r="C155" s="2"/>
       <c r="E155">
-        <f t="shared" si="11"/>
-        <v>58.673571383575926</v>
+        <f t="shared" si="9"/>
+        <v>-2.5299999999999869</v>
       </c>
       <c r="F155" s="3">
-        <f t="shared" si="12"/>
-        <v>40.263591325809955</v>
+        <f t="shared" si="8"/>
+        <v>2.9000000000000199</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
         <v>16</v>
       </c>
-      <c r="B156" s="7">
+      <c r="B156" s="5">
         <v>76.319999999999993</v>
       </c>
       <c r="C156" s="2"/>
       <c r="E156">
-        <f t="shared" si="11"/>
-        <v>59.283699955904403</v>
+        <f t="shared" si="9"/>
+        <v>2.6399999999999864</v>
       </c>
       <c r="F156" s="3">
-        <f t="shared" si="12"/>
-        <v>40.873719898138432</v>
+        <f t="shared" si="8"/>
+        <v>8.0699999999999932</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
         <v>17</v>
       </c>
-      <c r="B157" s="7">
+      <c r="B157" s="5">
         <v>75.5</v>
       </c>
       <c r="C157" s="2"/>
       <c r="E157">
-        <f t="shared" si="11"/>
-        <v>57.294425956786327</v>
+        <f t="shared" si="9"/>
+        <v>-0.91999999999998749</v>
       </c>
       <c r="F157" s="3">
-        <f t="shared" si="12"/>
-        <v>38.884445899020356</v>
+        <f t="shared" si="8"/>
+        <v>4.5100000000000193</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
         <v>18</v>
       </c>
-      <c r="B158" s="7">
+      <c r="B158" s="5">
         <v>75.599999999999994</v>
       </c>
       <c r="C158" s="2"/>
       <c r="E158">
-        <f t="shared" si="11"/>
-        <v>56.246537437650609</v>
+        <f t="shared" si="9"/>
+        <v>-2.5000000000000142</v>
       </c>
       <c r="F158" s="3">
-        <f t="shared" si="12"/>
-        <v>37.836557379884638</v>
+        <f t="shared" si="8"/>
+        <v>2.9299999999999926</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
         <v>19</v>
       </c>
-      <c r="B159" s="7">
+      <c r="B159" s="5">
         <v>78.2</v>
       </c>
       <c r="C159" s="2"/>
       <c r="E159">
-        <f t="shared" si="11"/>
-        <v>57.669606688897609</v>
+        <f t="shared" si="9"/>
+        <v>4.2400000000000091</v>
       </c>
       <c r="F159" s="3">
-        <f t="shared" si="12"/>
-        <v>39.259626631131638</v>
+        <f t="shared" si="8"/>
+        <v>9.6700000000000159</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
         <v>20</v>
       </c>
-      <c r="B160" s="7">
+      <c r="B160" s="5">
         <v>76.56</v>
       </c>
       <c r="C160" s="2"/>
       <c r="E160">
-        <f t="shared" si="11"/>
-        <v>54.909014555119647</v>
+        <f t="shared" si="9"/>
+        <v>-1.4599999999999937</v>
       </c>
       <c r="F160" s="3">
-        <f t="shared" si="12"/>
-        <v>36.499034497353676</v>
+        <f t="shared" si="8"/>
+        <v>3.9700000000000131</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
         <v>21</v>
       </c>
-      <c r="B161" s="7">
+      <c r="B161" s="5">
         <v>76.38</v>
       </c>
       <c r="C161" s="2"/>
       <c r="E161">
-        <f t="shared" si="11"/>
-        <v>53.634434264017251</v>
+        <f t="shared" si="9"/>
+        <v>-1.1300000000000097</v>
       </c>
       <c r="F161" s="3">
-        <f t="shared" si="12"/>
-        <v>35.224454206251281</v>
+        <f t="shared" si="8"/>
+        <v>4.2999999999999972</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
         <v>22</v>
       </c>
-      <c r="B162" s="7">
+      <c r="B162" s="5">
         <v>77.33</v>
       </c>
       <c r="C162" s="2"/>
       <c r="E162">
-        <f t="shared" si="11"/>
-        <v>53.492745578736915</v>
+        <f t="shared" si="9"/>
+        <v>0.14000000000000057</v>
       </c>
       <c r="F162" s="3">
-        <f t="shared" si="12"/>
-        <v>35.082765520970945</v>
+        <f t="shared" si="8"/>
+        <v>5.5700000000000074</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
         <v>23</v>
       </c>
-      <c r="B163" s="7">
+      <c r="B163" s="5">
         <v>78.14</v>
       </c>
       <c r="C163" s="2"/>
       <c r="E163">
-        <f t="shared" si="11"/>
-        <v>53.216690667162176</v>
+        <f t="shared" si="9"/>
+        <v>-1.2800000000000011</v>
       </c>
       <c r="F163" s="3">
-        <f t="shared" si="12"/>
-        <v>34.806710609396205</v>
+        <f t="shared" si="8"/>
+        <v>4.1500000000000057</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
         <v>24</v>
       </c>
-      <c r="B164" s="7">
+      <c r="B164" s="5">
         <v>80.23</v>
       </c>
       <c r="C164" s="2"/>
       <c r="E164">
-        <f t="shared" si="11"/>
-        <v>54.200556853818945</v>
+        <f t="shared" si="9"/>
+        <v>3.6900000000000119</v>
       </c>
       <c r="F164" s="3">
-        <f t="shared" si="12"/>
-        <v>35.790576796052974</v>
+        <f t="shared" si="8"/>
+        <v>9.1200000000000188</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
         <v>25</v>
       </c>
-      <c r="B165" s="7">
+      <c r="B165" s="5">
         <v>78.63</v>
       </c>
       <c r="C165" s="2"/>
       <c r="E165">
-        <f t="shared" si="11"/>
-        <v>51.548545716742552</v>
+        <f t="shared" si="9"/>
+        <v>-1.0300000000000153</v>
       </c>
       <c r="F165" s="3">
-        <f t="shared" si="12"/>
-        <v>33.138565658976582</v>
+        <f t="shared" si="8"/>
+        <v>4.3999999999999915</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
         <v>26</v>
       </c>
-      <c r="B166" s="7">
+      <c r="B166" s="5">
         <v>78.06</v>
       </c>
       <c r="C166" s="2"/>
       <c r="E166">
-        <f t="shared" si="11"/>
-        <v>49.95897480240771</v>
+        <f t="shared" si="9"/>
+        <v>-1.9899999999999949</v>
       </c>
       <c r="F166" s="3">
-        <f t="shared" si="12"/>
-        <v>31.548994744641739</v>
+        <f t="shared" si="8"/>
+        <v>3.4400000000000119</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
         <v>27</v>
       </c>
-      <c r="B167" s="7">
+      <c r="B167" s="5">
         <v>79.48</v>
       </c>
       <c r="C167" s="2"/>
       <c r="E167">
-        <f t="shared" si="11"/>
-        <v>50.351395306359542</v>
+        <f t="shared" si="9"/>
+        <v>2.7600000000000051</v>
       </c>
       <c r="F167" s="3">
-        <f t="shared" si="12"/>
-        <v>31.941415248593572</v>
+        <f t="shared" si="8"/>
+        <v>8.1900000000000119</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
         <v>28</v>
       </c>
-      <c r="B168" s="7">
+      <c r="B168" s="5">
         <v>78.14</v>
       </c>
       <c r="C168" s="2"/>
       <c r="E168">
-        <f t="shared" si="11"/>
-        <v>48.031167400232356</v>
+        <f t="shared" si="9"/>
+        <v>-1.1500000000000057</v>
       </c>
       <c r="F168" s="3">
-        <f t="shared" si="12"/>
-        <v>29.621187342466385</v>
+        <f t="shared" si="8"/>
+        <v>4.2800000000000011</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
         <v>29</v>
       </c>
-      <c r="B169" s="7">
+      <c r="B169" s="5">
         <v>77.95</v>
       </c>
       <c r="C169" s="2"/>
       <c r="E169">
-        <f t="shared" si="11"/>
-        <v>46.884344052227704</v>
+        <f t="shared" si="9"/>
+        <v>-1.6299999999999955</v>
       </c>
       <c r="F169" s="3">
-        <f t="shared" si="12"/>
-        <v>28.474363994461733</v>
+        <f t="shared" si="8"/>
+        <v>3.8000000000000114</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
         <v>30</v>
       </c>
-      <c r="B170" s="7">
+      <c r="B170" s="5">
         <v>79.39</v>
       </c>
       <c r="C170" s="2"/>
       <c r="E170">
-        <f t="shared" si="11"/>
-        <v>47.357857171183149</v>
+        <f t="shared" si="9"/>
+        <v>2.8700000000000045</v>
       </c>
       <c r="F170" s="3">
-        <f t="shared" si="12"/>
-        <v>28.947877113417178</v>
+        <f t="shared" si="8"/>
+        <v>8.3000000000000114</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
         <v>31</v>
       </c>
-      <c r="B171" s="7">
+      <c r="B171" s="5">
         <v>77.959999999999994</v>
       </c>
       <c r="E171">
-        <f t="shared" si="11"/>
-        <v>45.009300027759473</v>
+        <f t="shared" si="9"/>
+        <v>-3.8000000000000114</v>
       </c>
       <c r="F171" s="3">
-        <f t="shared" si="12"/>
-        <v>26.599319969993502</v>
+        <f t="shared" si="8"/>
+        <v>1.6299999999999955</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
         <v>32</v>
       </c>
-      <c r="B172" s="7">
+      <c r="B172" s="5">
         <v>80.33</v>
       </c>
       <c r="E172">
-        <f t="shared" si="11"/>
-        <v>46.431714027204279</v>
+        <f t="shared" si="9"/>
+        <v>3.2600000000000051</v>
       </c>
       <c r="F172" s="3">
-        <f t="shared" si="12"/>
-        <v>28.021733969438309</v>
+        <f t="shared" si="8"/>
+        <v>8.6900000000000119</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
         <v>33</v>
       </c>
-      <c r="B173" s="7">
+      <c r="B173" s="5">
         <v>79.44</v>
       </c>
       <c r="E173">
-        <f t="shared" si="11"/>
-        <v>44.630879746660192</v>
+        <f t="shared" si="9"/>
+        <v>0.50999999999999091</v>
       </c>
       <c r="F173" s="3">
-        <f t="shared" si="12"/>
-        <v>26.220899688894221</v>
+        <f t="shared" si="8"/>
+        <v>5.9399999999999977</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
         <v>34</v>
       </c>
-      <c r="B174" s="7">
+      <c r="B174" s="5">
         <v>78.040000000000006</v>
       </c>
       <c r="E174">
-        <f t="shared" si="11"/>
-        <v>42.366262151727</v>
+        <f t="shared" si="9"/>
+        <v>-2.7399999999999807</v>
       </c>
       <c r="F174" s="3">
-        <f t="shared" si="12"/>
-        <v>23.956282093961029</v>
+        <f t="shared" si="8"/>
+        <v>2.6900000000000261</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
         <v>35</v>
       </c>
-      <c r="B175" s="7">
+      <c r="B175" s="5">
         <v>79.38</v>
       </c>
       <c r="E175">
-        <f t="shared" si="11"/>
-        <v>42.832136908692448</v>
+        <f t="shared" si="9"/>
+        <v>-0.22000000000001307</v>
       </c>
       <c r="F175" s="3">
-        <f t="shared" si="12"/>
-        <v>24.422156850926477</v>
+        <f t="shared" si="8"/>
+        <v>5.2099999999999937</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
         <v>36</v>
       </c>
-      <c r="B176" s="7">
+      <c r="B176" s="5">
         <v>80.94</v>
       </c>
       <c r="E176">
-        <f t="shared" si="11"/>
-        <v>43.504294170518598</v>
+        <f t="shared" si="9"/>
+        <v>1.3100000000000023</v>
       </c>
       <c r="F176" s="3">
-        <f t="shared" si="12"/>
-        <v>25.094314112752627</v>
+        <f t="shared" si="8"/>
+        <v>6.7400000000000091</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
         <v>37</v>
       </c>
-      <c r="B177" s="7">
+      <c r="B177" s="5">
         <v>81.19</v>
       </c>
       <c r="E177">
-        <f t="shared" si="11"/>
-        <v>42.87920828710822</v>
+        <f t="shared" si="9"/>
+        <v>-0.67000000000000171</v>
       </c>
       <c r="F177" s="3">
-        <f t="shared" si="12"/>
-        <v>24.469228229342249</v>
+        <f t="shared" si="8"/>
+        <v>4.7600000000000051</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
         <v>38</v>
       </c>
-      <c r="B178" s="7">
+      <c r="B178" s="5">
         <v>82.11</v>
       </c>
       <c r="E178">
-        <f t="shared" si="11"/>
-        <v>42.923224121366061</v>
+        <f t="shared" si="9"/>
+        <v>2.960000000000008</v>
       </c>
       <c r="F178" s="3">
-        <f t="shared" si="12"/>
-        <v>24.513244063600091</v>
+        <f t="shared" si="8"/>
+        <v>8.3900000000000148</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
         <v>39</v>
       </c>
-      <c r="B179" s="7">
+      <c r="B179" s="5">
         <v>80.069999999999993</v>
       </c>
       <c r="E179">
-        <f t="shared" si="11"/>
-        <v>40.06555963893873</v>
+        <f t="shared" si="9"/>
+        <v>-3.8400000000000176</v>
       </c>
       <c r="F179" s="3">
-        <f t="shared" si="12"/>
-        <v>21.655579581172759</v>
+        <f t="shared" si="8"/>
+        <v>1.5899999999999892</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
         <v>40</v>
       </c>
-      <c r="B180" s="7">
+      <c r="B180" s="5">
         <v>81.87</v>
       </c>
       <c r="E180">
-        <f t="shared" si="11"/>
-        <v>41.028248446159971</v>
+        <f t="shared" si="9"/>
+        <v>3.3100000000000165</v>
       </c>
       <c r="F180" s="3">
-        <f t="shared" si="12"/>
-        <v>22.618268388394</v>
+        <f t="shared" si="8"/>
+        <v>8.7400000000000233</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
         <v>41</v>
       </c>
-      <c r="B181" s="7">
+      <c r="B181" s="5">
         <v>80.36</v>
       </c>
       <c r="E181">
-        <f t="shared" si="11"/>
-        <v>38.727883477236759</v>
+        <f t="shared" si="9"/>
+        <v>-1.9400000000000119</v>
       </c>
       <c r="F181" s="3">
-        <f t="shared" si="12"/>
-        <v>20.317903419470788</v>
+        <f t="shared" si="8"/>
+        <v>3.4899999999999949</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
         <v>42</v>
       </c>
-      <c r="B182" s="7">
+      <c r="B182" s="5">
         <v>80.790000000000006</v>
       </c>
       <c r="E182">
-        <f t="shared" si="11"/>
-        <v>38.37472580769203</v>
+        <f t="shared" si="9"/>
+        <v>-0.30999999999998806</v>
       </c>
       <c r="F182" s="3">
-        <f t="shared" si="12"/>
-        <v>19.96474574992606</v>
+        <f t="shared" si="8"/>
+        <v>5.1200000000000188</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
         <v>43</v>
       </c>
-      <c r="B183" s="7">
+      <c r="B183" s="5">
         <v>81.53</v>
       </c>
       <c r="E183">
-        <f t="shared" si="11"/>
-        <v>38.332431291538185</v>
+        <f t="shared" si="9"/>
+        <v>-0.35000000000000853</v>
       </c>
       <c r="F183" s="3">
-        <f t="shared" si="12"/>
-        <v>19.922451233772215</v>
+        <f t="shared" si="8"/>
+        <v>5.0799999999999983</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
         <v>44</v>
       </c>
-      <c r="B184" s="7">
+      <c r="B184" s="5">
         <v>82.62</v>
       </c>
       <c r="E184">
-        <f t="shared" si="11"/>
-        <v>38.633982665707421</v>
+        <f t="shared" si="9"/>
+        <v>0.67000000000000171</v>
       </c>
       <c r="F184" s="3">
-        <f t="shared" si="12"/>
-        <v>20.224002607941451</v>
+        <f t="shared" si="8"/>
+        <v>6.1000000000000085</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="2">
         <v>45</v>
       </c>
-      <c r="B185" s="7">
+      <c r="B185" s="5">
         <v>83.04</v>
       </c>
       <c r="E185">
-        <f t="shared" si="11"/>
-        <v>38.272903012393272</v>
+        <f t="shared" si="9"/>
+        <v>2.2600000000000051</v>
       </c>
       <c r="F185" s="3">
-        <f t="shared" si="12"/>
-        <v>19.862922954627301</v>
+        <f t="shared" si="8"/>
+        <v>7.6900000000000119</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
         <v>46</v>
       </c>
-      <c r="B186" s="7">
+      <c r="B186" s="5">
         <v>81.2</v>
       </c>
       <c r="E186">
-        <f t="shared" si="11"/>
-        <v>35.704244952145402</v>
+        <f t="shared" si="9"/>
+        <v>-2.9300000000000068</v>
       </c>
       <c r="F186" s="3">
-        <f t="shared" si="12"/>
-        <v>17.294264894379431</v>
+        <f t="shared" si="8"/>
+        <v>2.5</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
         <v>47</v>
       </c>
-      <c r="B187" s="7">
+      <c r="B187" s="5">
         <v>82.29</v>
       </c>
       <c r="E187">
-        <f t="shared" si="11"/>
-        <v>36.058360053102497</v>
+        <f t="shared" si="9"/>
+        <v>0.56000000000001648</v>
       </c>
       <c r="F187" s="3">
-        <f t="shared" si="12"/>
-        <v>17.648379995336526</v>
+        <f t="shared" si="8"/>
+        <v>5.9900000000000233</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="2">
         <v>48</v>
       </c>
-      <c r="B188" s="7">
+      <c r="B188" s="5">
         <v>82.82</v>
       </c>
       <c r="E188">
-        <f t="shared" si="11"/>
-        <v>35.856592852040428</v>
+        <f t="shared" si="9"/>
+        <v>1.9699999999999847</v>
       </c>
       <c r="F188" s="3">
-        <f t="shared" si="12"/>
-        <v>17.446612794274458</v>
+        <f t="shared" si="8"/>
+        <v>7.3999999999999915</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="2">
         <v>49</v>
       </c>
-      <c r="B189" s="7">
+      <c r="B189" s="5">
         <v>81.38</v>
       </c>
       <c r="E189">
-        <f t="shared" si="11"/>
-        <v>33.728260994999616</v>
+        <f t="shared" si="9"/>
+        <v>-2.6500000000000057</v>
       </c>
       <c r="F189" s="3">
-        <f t="shared" si="12"/>
-        <v>15.318280937233645</v>
+        <f t="shared" si="8"/>
+        <v>2.7800000000000011</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="2">
         <v>50</v>
       </c>
-      <c r="B190" s="7">
+      <c r="B190" s="5">
         <v>82.59</v>
       </c>
       <c r="E190">
-        <f t="shared" si="11"/>
-        <v>34.239495775099634</v>
+        <f t="shared" si="9"/>
+        <v>1.9100000000000108</v>
       </c>
       <c r="F190" s="3">
-        <f t="shared" si="12"/>
-        <v>15.829515717333663</v>
+        <f t="shared" si="8"/>
+        <v>7.3400000000000176</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="2">
         <v>51</v>
       </c>
-      <c r="B191" s="7">
+      <c r="B191" s="5">
         <v>81.89</v>
       </c>
       <c r="E191">
-        <f t="shared" si="11"/>
-        <v>32.868705859597632</v>
+        <f t="shared" si="9"/>
+        <v>-5.4300000000000068</v>
       </c>
       <c r="F191" s="3">
-        <f t="shared" si="12"/>
-        <v>14.458725801831662</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="2">
         <v>52</v>
       </c>
-      <c r="B192" s="9">
+      <c r="B192" s="7">
         <v>86.62</v>
       </c>
       <c r="E192">
-        <f t="shared" si="11"/>
-        <v>36.846731742405687</v>
+        <f t="shared" si="9"/>
+        <v>7.8300000000000125</v>
       </c>
       <c r="F192" s="3">
-        <f t="shared" si="12"/>
-        <v>18.436751684639717</v>
+        <f t="shared" si="8"/>
+        <v>13.260000000000019</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
         <v>53</v>
       </c>
-      <c r="B193" s="7">
+      <c r="B193" s="5">
         <v>83.52</v>
       </c>
       <c r="E193">
-        <f t="shared" si="11"/>
-        <v>33.071797107557558</v>
+        <f t="shared" si="9"/>
+        <v>-3.6500000000000057</v>
       </c>
       <c r="F193" s="3">
-        <f t="shared" si="12"/>
-        <v>14.661817049791587</v>
+        <f t="shared" si="8"/>
+        <v>1.7800000000000011</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="2">
         <v>54</v>
       </c>
-      <c r="B194" s="7">
+      <c r="B194" s="5">
         <v>84.07</v>
       </c>
       <c r="E194">
-        <f t="shared" si="11"/>
-        <v>32.949361165406401</v>
+        <f t="shared" si="9"/>
+        <v>1.2599999999999909</v>
       </c>
       <c r="F194" s="3">
-        <f t="shared" si="12"/>
-        <v>14.53938110764043</v>
+        <f t="shared" si="8"/>
+        <v>6.6899999999999977</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="2">
         <v>55</v>
       </c>
-      <c r="B195" s="7">
+      <c r="B195" s="5">
         <v>83.36</v>
       </c>
       <c r="E195">
-        <f t="shared" si="11"/>
-        <v>31.594573942098279</v>
+        <f t="shared" si="9"/>
+        <v>-0.45999999999999375</v>
       </c>
       <c r="F195" s="3">
-        <f t="shared" si="12"/>
-        <v>13.184593884332308</v>
+        <f t="shared" si="8"/>
+        <v>4.9700000000000131</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="2">
         <v>56</v>
       </c>
-      <c r="B196" s="7">
+      <c r="B196" s="5">
         <v>83.11</v>
       </c>
       <c r="E196">
-        <f t="shared" si="11"/>
-        <v>30.717682463256313</v>
+        <f t="shared" si="9"/>
+        <v>-2</v>
       </c>
       <c r="F196" s="3">
-        <f t="shared" si="12"/>
-        <v>12.307702405490343</v>
+        <f t="shared" si="8"/>
+        <v>3.4300000000000068</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="2">
         <v>57</v>
       </c>
-      <c r="B197" s="7">
+      <c r="B197" s="5">
         <v>84.86</v>
       </c>
       <c r="E197">
-        <f t="shared" si="11"/>
-        <v>31.818328813991183</v>
+        <f t="shared" si="9"/>
+        <v>3.3799999999999955</v>
       </c>
       <c r="F197" s="3">
-        <f t="shared" si="12"/>
-        <v>13.408348756225212</v>
+        <f t="shared" si="8"/>
+        <v>8.8100000000000023</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="2">
         <v>58</v>
       </c>
-      <c r="B198" s="7">
+      <c r="B198" s="5">
         <v>83.23</v>
       </c>
       <c r="E198">
-        <f t="shared" si="11"/>
-        <v>29.584562237711367</v>
+        <f t="shared" si="9"/>
+        <v>-2.3799999999999955</v>
       </c>
       <c r="F198" s="3">
-        <f t="shared" si="12"/>
-        <v>11.174582179945396</v>
+        <f t="shared" si="8"/>
+        <v>3.0500000000000114</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="2">
         <v>59</v>
       </c>
-      <c r="B199" s="7">
+      <c r="B199" s="5">
         <v>83.98</v>
       </c>
       <c r="E199">
-        <f t="shared" si="11"/>
-        <v>29.72787099295714</v>
+        <f t="shared" si="9"/>
+        <v>0.93000000000000682</v>
       </c>
       <c r="F199" s="3">
-        <f t="shared" si="12"/>
-        <v>11.317890935191169</v>
+        <f t="shared" si="8"/>
+        <v>6.3600000000000136</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="2">
         <v>60</v>
       </c>
-      <c r="B200" s="7">
+      <c r="B200" s="5">
         <v>83.8</v>
       </c>
       <c r="E200">
-        <f t="shared" si="11"/>
-        <v>28.956913573097985</v>
+        <f t="shared" si="9"/>
+        <v>-0.31000000000001648</v>
       </c>
       <c r="F200" s="3">
-        <f t="shared" si="12"/>
-        <v>10.546933515332015</v>
+        <f t="shared" si="8"/>
+        <v>5.1199999999999903</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="2">
         <v>61</v>
       </c>
-      <c r="B201" s="7">
+      <c r="B201" s="5">
         <v>83.93</v>
       </c>
       <c r="E201">
-        <f t="shared" si="11"/>
-        <v>28.505175301636026</v>
+        <f t="shared" si="9"/>
+        <v>-0.35999999999998522</v>
       </c>
       <c r="F201" s="3">
-        <f t="shared" si="12"/>
-        <v>10.095195243870055</v>
+        <f t="shared" si="8"/>
+        <v>5.0700000000000216</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="2">
         <v>62</v>
       </c>
-      <c r="B202" s="7">
+      <c r="B202" s="5">
         <v>84.42</v>
       </c>
       <c r="E202">
-        <f t="shared" si="11"/>
-        <v>28.415271795603303</v>
+        <f t="shared" si="9"/>
+        <v>2.3799999999999955</v>
       </c>
       <c r="F202" s="3">
-        <f t="shared" si="12"/>
-        <v>10.005291737837332</v>
+        <f t="shared" si="8"/>
+        <v>7.8100000000000023</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="2">
         <v>63</v>
       </c>
-      <c r="B203" s="7">
+      <c r="B203" s="5">
         <v>82.53</v>
       </c>
       <c r="E203">
-        <f t="shared" si="11"/>
-        <v>25.994766359691237</v>
+        <f t="shared" si="9"/>
+        <v>-3.230000000000004</v>
       </c>
       <c r="F203" s="3">
-        <f t="shared" si="12"/>
-        <v>7.5847863019252664</v>
+        <f t="shared" si="8"/>
+        <v>2.2000000000000028</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="2">
         <v>64</v>
       </c>
-      <c r="B204" s="7">
+      <c r="B204" s="5">
         <v>83.87</v>
       </c>
       <c r="E204">
-        <f t="shared" si="11"/>
-        <v>26.78807103249742</v>
+        <f t="shared" si="9"/>
+        <v>1.230000000000004</v>
       </c>
       <c r="F204" s="3">
-        <f t="shared" si="12"/>
-        <v>8.3780909747314496</v>
+        <f t="shared" si="8"/>
+        <v>6.6600000000000108</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="2">
         <v>65</v>
       </c>
-      <c r="B205" s="7">
+      <c r="B205" s="5">
         <v>83.98</v>
       </c>
       <c r="E205">
-        <f t="shared" si="11"/>
-        <v>26.360109611847477</v>
+        <f t="shared" si="9"/>
+        <v>4.9999999999997158E-2</v>
       </c>
       <c r="F205" s="3">
-        <f t="shared" si="12"/>
-        <v>7.9501295540815065</v>
+        <f t="shared" si="8"/>
+        <v>5.480000000000004</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="2">
         <v>66</v>
       </c>
-      <c r="B206" s="7">
+      <c r="B206" s="5">
         <v>84.04</v>
       </c>
       <c r="E206">
-        <f t="shared" si="11"/>
-        <v>25.89170741961053</v>
+        <f t="shared" si="9"/>
+        <v>-1.8199999999999932</v>
       </c>
       <c r="F206" s="3">
-        <f t="shared" si="12"/>
-        <v>7.481727361844559</v>
+        <f t="shared" si="8"/>
+        <v>3.6100000000000136</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="2">
         <v>67</v>
       </c>
-      <c r="B207" s="7">
+      <c r="B207" s="5">
         <v>85.92</v>
       </c>
       <c r="E207">
-        <f t="shared" si="11"/>
-        <v>27.216273271218309</v>
+        <f t="shared" si="9"/>
+        <v>4</v>
       </c>
       <c r="F207" s="3">
-        <f t="shared" si="12"/>
-        <v>8.8062932134523386</v>
+        <f t="shared" si="8"/>
+        <v>9.4300000000000068</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="2">
         <v>68</v>
       </c>
-      <c r="B208" s="7">
+      <c r="B208" s="5">
         <v>83.8</v>
       </c>
       <c r="E208">
-        <f t="shared" ref="E208:E230" si="13">$C$3*(E207 + B208 - B207)</f>
-        <v>24.594347805793941</v>
+        <f t="shared" si="9"/>
+        <v>-2.7200000000000131</v>
       </c>
       <c r="F208" s="3">
-        <f t="shared" ref="F208:F230" si="14">E208-E$232</f>
-        <v>6.1843677480279702</v>
+        <f t="shared" ref="F208:F230" si="10">E208-E$232</f>
+        <v>2.7099999999999937</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="2">
         <v>69</v>
       </c>
-      <c r="B209" s="7">
+      <c r="B209" s="5">
         <v>84.4</v>
       </c>
       <c r="E209">
-        <f t="shared" si="13"/>
-        <v>24.690460849678072</v>
+        <f t="shared" ref="E209:E230" si="11">2*B209 -  B208 - B210</f>
+        <v>0.21000000000000796</v>
       </c>
       <c r="F209" s="3">
-        <f t="shared" si="14"/>
-        <v>6.2804807919121011</v>
+        <f t="shared" si="10"/>
+        <v>5.6400000000000148</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="2">
         <v>70</v>
       </c>
-      <c r="B210" s="7">
+      <c r="B210" s="5">
         <v>84.79</v>
       </c>
       <c r="E210">
-        <f t="shared" si="13"/>
-        <v>24.578851632684515</v>
+        <f t="shared" si="11"/>
+        <v>-0.10999999999999943</v>
       </c>
       <c r="F210" s="3">
-        <f t="shared" si="14"/>
-        <v>6.1688715749185441</v>
+        <f t="shared" si="10"/>
+        <v>5.3200000000000074</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="2">
         <v>71</v>
       </c>
-      <c r="B211" s="7">
+      <c r="B211" s="5">
         <v>85.29</v>
       </c>
       <c r="E211">
-        <f t="shared" si="13"/>
-        <v>24.577274600030826</v>
+        <f t="shared" si="11"/>
+        <v>5.0000000000011369E-2</v>
       </c>
       <c r="F211" s="3">
-        <f t="shared" si="14"/>
-        <v>6.1672945422648553</v>
+        <f t="shared" si="10"/>
+        <v>5.4800000000000182</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="2">
         <v>72</v>
       </c>
-      <c r="B212" s="7">
+      <c r="B212" s="5">
         <v>85.74</v>
       </c>
       <c r="E212">
-        <f t="shared" si="13"/>
-        <v>24.526729108030207</v>
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
       <c r="F212" s="3">
-        <f t="shared" si="14"/>
-        <v>6.1167490502642359</v>
+        <f t="shared" si="10"/>
+        <v>5.4300000000000068</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" s="2">
         <v>73</v>
       </c>
-      <c r="B213" s="7">
+      <c r="B213" s="5">
         <v>86.19</v>
       </c>
       <c r="E213">
-        <f t="shared" si="13"/>
-        <v>24.47719452586961</v>
+        <f t="shared" si="11"/>
+        <v>1.8299999999999983</v>
       </c>
       <c r="F213" s="3">
-        <f t="shared" si="14"/>
-        <v>6.0672144681036393</v>
+        <f t="shared" si="10"/>
+        <v>7.2600000000000051</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" s="2">
         <v>74</v>
       </c>
-      <c r="B214" s="7">
+      <c r="B214" s="5">
         <v>84.81</v>
       </c>
       <c r="E214">
-        <f t="shared" si="13"/>
-        <v>22.635250635352218</v>
+        <f t="shared" si="11"/>
+        <v>-2.3599999999999994</v>
       </c>
       <c r="F214" s="3">
-        <f t="shared" si="14"/>
-        <v>4.2252705775862474</v>
+        <f t="shared" si="10"/>
+        <v>3.0700000000000074</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" s="2">
         <v>75</v>
       </c>
-      <c r="B215" s="7">
+      <c r="B215" s="5">
         <v>85.79</v>
       </c>
       <c r="E215">
-        <f t="shared" si="13"/>
-        <v>23.142945622645179</v>
+        <f t="shared" si="11"/>
+        <v>1.210000000000008</v>
       </c>
       <c r="F215" s="3">
-        <f t="shared" si="14"/>
-        <v>4.7329655648792084</v>
+        <f t="shared" si="10"/>
+        <v>6.6400000000000148</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" s="2">
         <v>76</v>
       </c>
-      <c r="B216" s="7">
+      <c r="B216" s="5">
         <v>85.56</v>
       </c>
       <c r="E216">
-        <f t="shared" si="13"/>
-        <v>22.454686710192277</v>
+        <f t="shared" si="11"/>
+        <v>0.29999999999999716</v>
       </c>
       <c r="F216" s="3">
-        <f t="shared" si="14"/>
-        <v>4.0447066524263064</v>
+        <f t="shared" si="10"/>
+        <v>5.730000000000004</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" s="2">
         <v>77</v>
       </c>
-      <c r="B217" s="7">
+      <c r="B217" s="5">
         <v>85.03</v>
       </c>
       <c r="E217">
-        <f t="shared" si="13"/>
-        <v>21.48619297598843</v>
+        <f t="shared" si="11"/>
+        <v>-1.5799999999999983</v>
       </c>
       <c r="F217" s="3">
-        <f t="shared" si="14"/>
-        <v>3.0762129182224598</v>
+        <f t="shared" si="10"/>
+        <v>3.8500000000000085</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" s="2">
         <v>78</v>
       </c>
-      <c r="B218" s="7">
+      <c r="B218" s="5">
         <v>86.08</v>
       </c>
       <c r="E218">
-        <f t="shared" si="13"/>
-        <v>22.085469116468659</v>
+        <f t="shared" si="11"/>
+        <v>1.6599999999999966</v>
       </c>
       <c r="F218" s="3">
-        <f t="shared" si="14"/>
-        <v>3.6754890587026878</v>
+        <f t="shared" si="10"/>
+        <v>7.0900000000000034</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" s="2">
         <v>79</v>
       </c>
-      <c r="B219" s="7">
+      <c r="B219" s="5">
         <v>85.47</v>
       </c>
       <c r="E219">
-        <f t="shared" si="13"/>
-        <v>21.045959734139284</v>
+        <f t="shared" si="11"/>
+        <v>-0.29999999999999716</v>
       </c>
       <c r="F219" s="3">
-        <f t="shared" si="14"/>
-        <v>2.6359796763733137</v>
+        <f t="shared" si="10"/>
+        <v>5.1300000000000097</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" s="2">
         <v>80</v>
       </c>
-      <c r="B220" s="7">
+      <c r="B220" s="5">
         <v>85.16</v>
       </c>
       <c r="E220">
-        <f t="shared" si="13"/>
-        <v>20.3212405394565</v>
+        <f t="shared" si="11"/>
+        <v>-1.1300000000000097</v>
       </c>
       <c r="F220" s="3">
-        <f t="shared" si="14"/>
-        <v>1.9112604816905296</v>
+        <f t="shared" si="10"/>
+        <v>4.2999999999999972</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" s="2">
         <v>81</v>
       </c>
-      <c r="B221" s="7">
+      <c r="B221" s="5">
         <v>85.98</v>
       </c>
       <c r="E221">
-        <f t="shared" si="13"/>
-        <v>20.718415728667374</v>
+        <f t="shared" si="11"/>
+        <v>1.1700000000000159</v>
       </c>
       <c r="F221" s="3">
-        <f t="shared" si="14"/>
-        <v>2.3084356709014031</v>
+        <f t="shared" si="10"/>
+        <v>6.6000000000000227</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" s="2">
         <v>82</v>
       </c>
-      <c r="B222" s="7">
+      <c r="B222" s="5">
         <v>85.63</v>
       </c>
       <c r="E222">
-        <f t="shared" si="13"/>
-        <v>19.961047414094011</v>
+        <f t="shared" si="11"/>
+        <v>-0.11000000000001364</v>
       </c>
       <c r="F222" s="3">
-        <f t="shared" si="14"/>
-        <v>1.5510673563280406</v>
+        <f t="shared" si="10"/>
+        <v>5.3199999999999932</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" s="2">
         <v>83</v>
       </c>
-      <c r="B223" s="7">
+      <c r="B223" s="5">
         <v>85.39</v>
       </c>
       <c r="E223">
-        <f t="shared" si="13"/>
-        <v>19.326626465812137</v>
+        <f t="shared" si="11"/>
+        <v>-0.95999999999999375</v>
       </c>
       <c r="F223" s="3">
-        <f t="shared" si="14"/>
-        <v>0.91664640804616582</v>
+        <f t="shared" si="10"/>
+        <v>4.4700000000000131</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" s="2">
         <v>84</v>
       </c>
-      <c r="B224" s="7">
+      <c r="B224" s="5">
         <v>86.11</v>
       </c>
       <c r="E224">
-        <f t="shared" si="13"/>
-        <v>19.645693936495896</v>
+        <f t="shared" si="11"/>
+        <v>1.5799999999999983</v>
       </c>
       <c r="F224" s="3">
-        <f t="shared" si="14"/>
-        <v>1.2357138787299249</v>
+        <f t="shared" si="10"/>
+        <v>7.0100000000000051</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" s="2">
         <v>85</v>
       </c>
-      <c r="B225" s="7">
+      <c r="B225" s="5">
         <v>85.25</v>
       </c>
       <c r="E225">
-        <f t="shared" si="13"/>
-        <v>18.409980057765971</v>
+        <f t="shared" si="11"/>
+        <v>-2.5900000000000034</v>
       </c>
       <c r="F225" s="3">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>2.8400000000000034</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" s="2">
         <v>86</v>
       </c>
-      <c r="B226" s="7">
+      <c r="B226" s="5">
         <v>86.98</v>
       </c>
       <c r="E226">
-        <f t="shared" si="13"/>
-        <v>19.737180456610648</v>
+        <f t="shared" si="11"/>
+        <v>1.7400000000000091</v>
       </c>
       <c r="F226" s="3">
-        <f t="shared" si="14"/>
-        <v>1.3272003988446777</v>
+        <f t="shared" si="10"/>
+        <v>7.1700000000000159</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" s="2">
         <v>87</v>
       </c>
-      <c r="B227" s="7">
+      <c r="B227" s="5">
         <v>86.97</v>
       </c>
       <c r="E227">
-        <f t="shared" si="13"/>
-        <v>19.332636847478426</v>
+        <f t="shared" si="11"/>
+        <v>-0.35999999999999943</v>
       </c>
       <c r="F227" s="3">
-        <f t="shared" si="14"/>
-        <v>0.92265678971245535</v>
+        <f t="shared" si="10"/>
+        <v>5.0700000000000074</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" s="2">
         <v>88</v>
       </c>
-      <c r="B228" s="7">
+      <c r="B228" s="5">
         <v>87.32</v>
       </c>
       <c r="E228">
-        <f t="shared" si="13"/>
-        <v>19.288984110528851</v>
+        <f t="shared" si="11"/>
+        <v>0.73999999999998067</v>
       </c>
       <c r="F228" s="3">
-        <f t="shared" si="14"/>
-        <v>0.87900405276288041</v>
+        <f t="shared" si="10"/>
+        <v>6.1699999999999875</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" s="2">
         <v>89</v>
       </c>
-      <c r="B229" s="7">
+      <c r="B229" s="5">
         <v>86.93</v>
       </c>
       <c r="E229">
-        <f t="shared" si="13"/>
-        <v>18.521004428318282</v>
+        <f t="shared" si="11"/>
+        <v>-1.069999999999979</v>
       </c>
       <c r="F229" s="3">
-        <f t="shared" si="14"/>
-        <v>0.11102437055231107</v>
+        <f t="shared" si="10"/>
+        <v>4.3600000000000279</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" s="2">
         <v>90</v>
       </c>
-      <c r="B230" s="8">
+      <c r="B230" s="6">
         <v>87.61</v>
       </c>
       <c r="E230">
-        <f t="shared" si="13"/>
-        <v>18.816984339751905</v>
+        <f>2*B230 -  B229 - B230</f>
+        <v>0.67999999999999261</v>
       </c>
       <c r="F230" s="3">
-        <f t="shared" si="14"/>
-        <v>0.40700428198593386</v>
+        <f t="shared" si="10"/>
+        <v>6.1099999999999994</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
@@ -8749,13 +8749,13 @@
       </c>
       <c r="F231" s="3">
         <f>MAX(F143:F230)</f>
-        <v>51.710019942234034</v>
+        <v>13.260000000000019</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E232" s="3">
         <f>MIN(E143:E231)</f>
-        <v>18.409980057765971</v>
+        <v>-5.4300000000000068</v>
       </c>
     </row>
   </sheetData>

--- a/lib/logic/tools/crypto_and_encodings/general_codebreakers/vigenere_breaker/HighPassFilter.xlsx
+++ b/lib/logic/tools/crypto_and_encodings/general_codebreakers/vigenere_breaker/HighPassFilter.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\GCWizard\lib\logic\tools\crypto_and_encodings\general_codebreakers\vigenere_breaker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{490E2515-0C0A-412B-8407-09F85312D4AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B86E4338-2939-4267-B101-23F4DB05504F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="1035" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="AutoKey" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="51">
   <si>
     <t>length</t>
   </si>
@@ -40,6 +41,144 @@
   </si>
   <si>
     <t>Soll (Y Achse vertauscht)</t>
+  </si>
+  <si>
+    <t>Key 1</t>
+  </si>
+  <si>
+    <t>Key 2</t>
+  </si>
+  <si>
+    <t>Key 3</t>
+  </si>
+  <si>
+    <t>Key 4</t>
+  </si>
+  <si>
+    <t>Key 5</t>
+  </si>
+  <si>
+    <t>Klart 1</t>
+  </si>
+  <si>
+    <t>Klart 2</t>
+  </si>
+  <si>
+    <t>Klart 3</t>
+  </si>
+  <si>
+    <t>Klart 4</t>
+  </si>
+  <si>
+    <t>Klart 5</t>
+  </si>
+  <si>
+    <t>Klart 6</t>
+  </si>
+  <si>
+    <t>Klart 7</t>
+  </si>
+  <si>
+    <t>Klart 8</t>
+  </si>
+  <si>
+    <t>Klart 9</t>
+  </si>
+  <si>
+    <t>Klart 10</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Key </t>
+  </si>
+  <si>
+    <t>Cipher</t>
+  </si>
+  <si>
+    <t>T(19)</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>H (7)</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>beaufort Variante</t>
   </si>
 </sst>
 </file>
@@ -5280,7 +5419,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P232"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E231" sqref="E231"/>
     </sheetView>
   </sheetViews>
@@ -5861,7 +6000,7 @@
       </c>
       <c r="C40" s="2"/>
       <c r="E40">
-        <f t="shared" ref="E40:E65" si="3">2*B40 -  B39 - B41</f>
+        <f t="shared" ref="E40:E64" si="3">2*B40 -  B39 - B41</f>
         <v>20.639999999999986</v>
       </c>
       <c r="F40" s="3">
@@ -6380,7 +6519,7 @@
       </c>
       <c r="C75" s="2"/>
       <c r="E75">
-        <f t="shared" ref="E75:E96" si="5">2*B75 -  B74 - B76</f>
+        <f t="shared" ref="E75:E95" si="5">2*B75 -  B74 - B76</f>
         <v>14.810000000000002</v>
       </c>
       <c r="F75" s="8">
@@ -6843,7 +6982,7 @@
       </c>
       <c r="C109" s="2"/>
       <c r="E109">
-        <f t="shared" ref="E109:E134" si="7">2*B109 -  B108 - B110</f>
+        <f t="shared" ref="E109:E133" si="7">2*B109 -  B108 - B110</f>
         <v>-4.4000000000000057</v>
       </c>
       <c r="F109" s="3">
@@ -8399,7 +8538,7 @@
         <v>84.4</v>
       </c>
       <c r="E209">
-        <f t="shared" ref="E209:E230" si="11">2*B209 -  B208 - B210</f>
+        <f t="shared" ref="E209:E229" si="11">2*B209 -  B208 - B210</f>
         <v>0.21000000000000796</v>
       </c>
       <c r="F209" s="3">
@@ -8775,4 +8914,1614 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="4294967294" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2836E29-2299-4F00-B83D-92B60A8258E0}">
+  <dimension ref="A1:AM51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="19" width="4.140625" customWidth="1"/>
+    <col min="20" max="29" width="4.42578125" customWidth="1"/>
+    <col min="30" max="39" width="5.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="N5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <v>3</v>
+      </c>
+      <c r="K6">
+        <v>4</v>
+      </c>
+      <c r="L6">
+        <v>5</v>
+      </c>
+      <c r="M6">
+        <v>6</v>
+      </c>
+      <c r="N6">
+        <v>7</v>
+      </c>
+      <c r="O6">
+        <v>8</v>
+      </c>
+      <c r="P6">
+        <v>9</v>
+      </c>
+      <c r="Q6">
+        <v>10</v>
+      </c>
+      <c r="R6">
+        <v>11</v>
+      </c>
+      <c r="S6">
+        <v>12</v>
+      </c>
+      <c r="T6">
+        <v>13</v>
+      </c>
+      <c r="U6">
+        <v>14</v>
+      </c>
+      <c r="V6">
+        <v>15</v>
+      </c>
+      <c r="W6">
+        <v>16</v>
+      </c>
+      <c r="X6">
+        <v>17</v>
+      </c>
+      <c r="Y6">
+        <v>18</v>
+      </c>
+      <c r="Z6">
+        <v>19</v>
+      </c>
+      <c r="AA6">
+        <v>20</v>
+      </c>
+      <c r="AB6">
+        <v>21</v>
+      </c>
+      <c r="AC6">
+        <v>22</v>
+      </c>
+      <c r="AD6">
+        <v>23</v>
+      </c>
+      <c r="AE6">
+        <v>24</v>
+      </c>
+      <c r="AF6">
+        <v>25</v>
+      </c>
+      <c r="AG6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>25</v>
+      </c>
+      <c r="I8">
+        <v>24</v>
+      </c>
+      <c r="J8">
+        <v>23</v>
+      </c>
+      <c r="K8">
+        <v>22</v>
+      </c>
+      <c r="L8">
+        <v>21</v>
+      </c>
+      <c r="M8">
+        <v>20</v>
+      </c>
+      <c r="N8" t="s">
+        <v>24</v>
+      </c>
+      <c r="O8">
+        <v>18</v>
+      </c>
+      <c r="P8">
+        <v>17</v>
+      </c>
+      <c r="Q8">
+        <v>16</v>
+      </c>
+      <c r="R8">
+        <v>15</v>
+      </c>
+      <c r="S8">
+        <v>14</v>
+      </c>
+      <c r="T8">
+        <v>13</v>
+      </c>
+      <c r="U8">
+        <v>12</v>
+      </c>
+      <c r="V8">
+        <v>11</v>
+      </c>
+      <c r="W8">
+        <v>10</v>
+      </c>
+      <c r="X8">
+        <v>9</v>
+      </c>
+      <c r="Y8">
+        <v>8</v>
+      </c>
+      <c r="Z8">
+        <v>7</v>
+      </c>
+      <c r="AA8">
+        <v>6</v>
+      </c>
+      <c r="AB8">
+        <v>5</v>
+      </c>
+      <c r="AC8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>25</v>
+      </c>
+      <c r="J9">
+        <v>24</v>
+      </c>
+      <c r="K9">
+        <v>23</v>
+      </c>
+      <c r="L9">
+        <v>22</v>
+      </c>
+      <c r="M9">
+        <v>21</v>
+      </c>
+      <c r="N9">
+        <v>20</v>
+      </c>
+      <c r="O9" t="s">
+        <v>24</v>
+      </c>
+      <c r="P9">
+        <v>18</v>
+      </c>
+      <c r="Q9">
+        <v>17</v>
+      </c>
+      <c r="R9">
+        <v>16</v>
+      </c>
+      <c r="S9">
+        <v>15</v>
+      </c>
+      <c r="T9">
+        <v>14</v>
+      </c>
+      <c r="U9">
+        <v>13</v>
+      </c>
+      <c r="V9">
+        <v>12</v>
+      </c>
+      <c r="W9">
+        <v>11</v>
+      </c>
+      <c r="X9">
+        <v>10</v>
+      </c>
+      <c r="Y9">
+        <v>9</v>
+      </c>
+      <c r="Z9">
+        <v>8</v>
+      </c>
+      <c r="AA9">
+        <v>7</v>
+      </c>
+      <c r="AB9">
+        <v>6</v>
+      </c>
+      <c r="AC9">
+        <v>5</v>
+      </c>
+      <c r="AD9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="J10">
+        <v>25</v>
+      </c>
+      <c r="K10">
+        <v>24</v>
+      </c>
+      <c r="L10">
+        <v>23</v>
+      </c>
+      <c r="M10">
+        <v>22</v>
+      </c>
+      <c r="N10">
+        <v>21</v>
+      </c>
+      <c r="O10">
+        <v>20</v>
+      </c>
+      <c r="P10" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q10">
+        <v>18</v>
+      </c>
+      <c r="R10">
+        <v>17</v>
+      </c>
+      <c r="S10">
+        <v>16</v>
+      </c>
+      <c r="T10">
+        <v>15</v>
+      </c>
+      <c r="U10">
+        <v>14</v>
+      </c>
+      <c r="V10">
+        <v>13</v>
+      </c>
+      <c r="W10">
+        <v>12</v>
+      </c>
+      <c r="X10">
+        <v>11</v>
+      </c>
+      <c r="Y10">
+        <v>10</v>
+      </c>
+      <c r="Z10">
+        <v>9</v>
+      </c>
+      <c r="AA10">
+        <v>8</v>
+      </c>
+      <c r="AB10">
+        <v>7</v>
+      </c>
+      <c r="AC10">
+        <v>6</v>
+      </c>
+      <c r="AD10">
+        <v>5</v>
+      </c>
+      <c r="AE10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+      <c r="K11">
+        <v>25</v>
+      </c>
+      <c r="L11">
+        <v>24</v>
+      </c>
+      <c r="M11">
+        <v>23</v>
+      </c>
+      <c r="N11">
+        <v>22</v>
+      </c>
+      <c r="O11">
+        <v>21</v>
+      </c>
+      <c r="P11">
+        <v>20</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>24</v>
+      </c>
+      <c r="R11">
+        <v>18</v>
+      </c>
+      <c r="S11">
+        <v>17</v>
+      </c>
+      <c r="T11">
+        <v>16</v>
+      </c>
+      <c r="U11">
+        <v>15</v>
+      </c>
+      <c r="V11">
+        <v>14</v>
+      </c>
+      <c r="W11">
+        <v>13</v>
+      </c>
+      <c r="X11">
+        <v>12</v>
+      </c>
+      <c r="Y11">
+        <v>11</v>
+      </c>
+      <c r="Z11">
+        <v>10</v>
+      </c>
+      <c r="AA11">
+        <v>9</v>
+      </c>
+      <c r="AB11">
+        <v>8</v>
+      </c>
+      <c r="AC11">
+        <v>7</v>
+      </c>
+      <c r="AD11">
+        <v>6</v>
+      </c>
+      <c r="AE11">
+        <v>5</v>
+      </c>
+      <c r="AF11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12">
+        <v>4</v>
+      </c>
+      <c r="L12">
+        <v>25</v>
+      </c>
+      <c r="M12">
+        <v>24</v>
+      </c>
+      <c r="N12">
+        <v>23</v>
+      </c>
+      <c r="O12">
+        <v>22</v>
+      </c>
+      <c r="P12">
+        <v>21</v>
+      </c>
+      <c r="Q12">
+        <v>20</v>
+      </c>
+      <c r="R12" t="s">
+        <v>24</v>
+      </c>
+      <c r="S12">
+        <v>18</v>
+      </c>
+      <c r="T12">
+        <v>17</v>
+      </c>
+      <c r="U12">
+        <v>16</v>
+      </c>
+      <c r="V12">
+        <v>15</v>
+      </c>
+      <c r="W12">
+        <v>14</v>
+      </c>
+      <c r="X12">
+        <v>13</v>
+      </c>
+      <c r="Y12">
+        <v>12</v>
+      </c>
+      <c r="Z12">
+        <v>11</v>
+      </c>
+      <c r="AA12">
+        <v>10</v>
+      </c>
+      <c r="AB12">
+        <v>9</v>
+      </c>
+      <c r="AC12">
+        <v>8</v>
+      </c>
+      <c r="AD12">
+        <v>7</v>
+      </c>
+      <c r="AE12">
+        <v>6</v>
+      </c>
+      <c r="AF12">
+        <v>5</v>
+      </c>
+      <c r="AG12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13">
+        <v>5</v>
+      </c>
+      <c r="M13">
+        <v>25</v>
+      </c>
+      <c r="N13">
+        <v>24</v>
+      </c>
+      <c r="O13">
+        <v>23</v>
+      </c>
+      <c r="P13">
+        <v>22</v>
+      </c>
+      <c r="Q13">
+        <v>21</v>
+      </c>
+      <c r="R13">
+        <v>20</v>
+      </c>
+      <c r="S13" t="s">
+        <v>24</v>
+      </c>
+      <c r="T13">
+        <v>18</v>
+      </c>
+      <c r="U13">
+        <v>17</v>
+      </c>
+      <c r="V13">
+        <v>16</v>
+      </c>
+      <c r="W13">
+        <v>15</v>
+      </c>
+      <c r="X13">
+        <v>14</v>
+      </c>
+      <c r="Y13">
+        <v>13</v>
+      </c>
+      <c r="Z13">
+        <v>12</v>
+      </c>
+      <c r="AA13">
+        <v>11</v>
+      </c>
+      <c r="AB13">
+        <v>10</v>
+      </c>
+      <c r="AC13">
+        <v>9</v>
+      </c>
+      <c r="AD13">
+        <v>8</v>
+      </c>
+      <c r="AE13">
+        <v>7</v>
+      </c>
+      <c r="AF13">
+        <v>6</v>
+      </c>
+      <c r="AG13">
+        <v>5</v>
+      </c>
+      <c r="AH13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14">
+        <v>6</v>
+      </c>
+      <c r="N14">
+        <v>25</v>
+      </c>
+      <c r="O14">
+        <v>24</v>
+      </c>
+      <c r="P14">
+        <v>23</v>
+      </c>
+      <c r="Q14">
+        <v>22</v>
+      </c>
+      <c r="R14">
+        <v>21</v>
+      </c>
+      <c r="S14">
+        <v>20</v>
+      </c>
+      <c r="T14" t="s">
+        <v>24</v>
+      </c>
+      <c r="U14">
+        <v>18</v>
+      </c>
+      <c r="V14">
+        <v>17</v>
+      </c>
+      <c r="W14">
+        <v>16</v>
+      </c>
+      <c r="X14">
+        <v>15</v>
+      </c>
+      <c r="Y14">
+        <v>14</v>
+      </c>
+      <c r="Z14">
+        <v>13</v>
+      </c>
+      <c r="AA14">
+        <v>12</v>
+      </c>
+      <c r="AB14">
+        <v>11</v>
+      </c>
+      <c r="AC14">
+        <v>10</v>
+      </c>
+      <c r="AD14">
+        <v>9</v>
+      </c>
+      <c r="AE14">
+        <v>8</v>
+      </c>
+      <c r="AF14">
+        <v>7</v>
+      </c>
+      <c r="AG14">
+        <v>6</v>
+      </c>
+      <c r="AH14">
+        <v>5</v>
+      </c>
+      <c r="AI14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15">
+        <v>7</v>
+      </c>
+      <c r="O15">
+        <v>25</v>
+      </c>
+      <c r="P15">
+        <v>24</v>
+      </c>
+      <c r="Q15">
+        <v>23</v>
+      </c>
+      <c r="R15">
+        <v>22</v>
+      </c>
+      <c r="S15">
+        <v>21</v>
+      </c>
+      <c r="T15">
+        <v>20</v>
+      </c>
+      <c r="U15" t="s">
+        <v>24</v>
+      </c>
+      <c r="V15">
+        <v>18</v>
+      </c>
+      <c r="W15">
+        <v>17</v>
+      </c>
+      <c r="X15">
+        <v>16</v>
+      </c>
+      <c r="Y15">
+        <v>15</v>
+      </c>
+      <c r="Z15">
+        <v>14</v>
+      </c>
+      <c r="AA15">
+        <v>13</v>
+      </c>
+      <c r="AB15">
+        <v>12</v>
+      </c>
+      <c r="AC15">
+        <v>11</v>
+      </c>
+      <c r="AD15">
+        <v>10</v>
+      </c>
+      <c r="AE15">
+        <v>9</v>
+      </c>
+      <c r="AF15">
+        <v>8</v>
+      </c>
+      <c r="AG15">
+        <v>7</v>
+      </c>
+      <c r="AH15">
+        <v>6</v>
+      </c>
+      <c r="AI15">
+        <v>5</v>
+      </c>
+      <c r="AJ15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16">
+        <v>8</v>
+      </c>
+      <c r="P16">
+        <v>25</v>
+      </c>
+      <c r="Q16">
+        <v>24</v>
+      </c>
+      <c r="R16">
+        <v>23</v>
+      </c>
+      <c r="S16">
+        <v>22</v>
+      </c>
+      <c r="T16">
+        <v>21</v>
+      </c>
+      <c r="U16">
+        <v>20</v>
+      </c>
+      <c r="V16" t="s">
+        <v>24</v>
+      </c>
+      <c r="W16">
+        <v>18</v>
+      </c>
+      <c r="X16">
+        <v>17</v>
+      </c>
+      <c r="Y16">
+        <v>16</v>
+      </c>
+      <c r="Z16">
+        <v>15</v>
+      </c>
+      <c r="AA16">
+        <v>14</v>
+      </c>
+      <c r="AB16">
+        <v>13</v>
+      </c>
+      <c r="AC16">
+        <v>12</v>
+      </c>
+      <c r="AD16">
+        <v>11</v>
+      </c>
+      <c r="AE16">
+        <v>10</v>
+      </c>
+      <c r="AF16">
+        <v>9</v>
+      </c>
+      <c r="AG16">
+        <v>8</v>
+      </c>
+      <c r="AH16">
+        <v>7</v>
+      </c>
+      <c r="AI16">
+        <v>6</v>
+      </c>
+      <c r="AJ16">
+        <v>5</v>
+      </c>
+      <c r="AK16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="5:39" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17">
+        <v>9</v>
+      </c>
+      <c r="Q17">
+        <v>25</v>
+      </c>
+      <c r="R17">
+        <v>24</v>
+      </c>
+      <c r="S17">
+        <v>23</v>
+      </c>
+      <c r="T17">
+        <v>22</v>
+      </c>
+      <c r="U17">
+        <v>21</v>
+      </c>
+      <c r="V17">
+        <v>20</v>
+      </c>
+      <c r="W17" t="s">
+        <v>24</v>
+      </c>
+      <c r="X17">
+        <v>18</v>
+      </c>
+      <c r="Y17">
+        <v>17</v>
+      </c>
+      <c r="Z17">
+        <v>16</v>
+      </c>
+      <c r="AA17">
+        <v>15</v>
+      </c>
+      <c r="AB17">
+        <v>14</v>
+      </c>
+      <c r="AC17">
+        <v>13</v>
+      </c>
+      <c r="AD17">
+        <v>12</v>
+      </c>
+      <c r="AE17">
+        <v>11</v>
+      </c>
+      <c r="AF17">
+        <v>10</v>
+      </c>
+      <c r="AG17">
+        <v>9</v>
+      </c>
+      <c r="AH17">
+        <v>8</v>
+      </c>
+      <c r="AI17">
+        <v>7</v>
+      </c>
+      <c r="AJ17">
+        <v>6</v>
+      </c>
+      <c r="AK17">
+        <v>5</v>
+      </c>
+      <c r="AL17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="5:39" x14ac:dyDescent="0.25">
+      <c r="F18" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18">
+        <v>10</v>
+      </c>
+      <c r="R18">
+        <v>25</v>
+      </c>
+      <c r="S18">
+        <v>24</v>
+      </c>
+      <c r="T18">
+        <v>23</v>
+      </c>
+      <c r="U18">
+        <v>22</v>
+      </c>
+      <c r="V18">
+        <v>21</v>
+      </c>
+      <c r="W18">
+        <v>20</v>
+      </c>
+      <c r="X18" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y18">
+        <v>18</v>
+      </c>
+      <c r="Z18">
+        <v>17</v>
+      </c>
+      <c r="AA18">
+        <v>16</v>
+      </c>
+      <c r="AB18">
+        <v>15</v>
+      </c>
+      <c r="AC18">
+        <v>14</v>
+      </c>
+      <c r="AD18">
+        <v>13</v>
+      </c>
+      <c r="AE18">
+        <v>12</v>
+      </c>
+      <c r="AF18">
+        <v>11</v>
+      </c>
+      <c r="AG18">
+        <v>10</v>
+      </c>
+      <c r="AH18">
+        <v>9</v>
+      </c>
+      <c r="AI18">
+        <v>8</v>
+      </c>
+      <c r="AJ18">
+        <v>7</v>
+      </c>
+      <c r="AK18">
+        <v>6</v>
+      </c>
+      <c r="AL18">
+        <v>5</v>
+      </c>
+      <c r="AM18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="5:39" x14ac:dyDescent="0.25">
+      <c r="F19" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19">
+        <v>11</v>
+      </c>
+      <c r="H19">
+        <v>10</v>
+      </c>
+      <c r="I19">
+        <v>9</v>
+      </c>
+      <c r="J19">
+        <v>8</v>
+      </c>
+      <c r="K19">
+        <v>7</v>
+      </c>
+      <c r="L19">
+        <v>6</v>
+      </c>
+      <c r="M19">
+        <v>5</v>
+      </c>
+      <c r="N19">
+        <v>4</v>
+      </c>
+      <c r="O19">
+        <v>3</v>
+      </c>
+      <c r="P19">
+        <v>2</v>
+      </c>
+      <c r="Q19">
+        <v>1</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>25</v>
+      </c>
+      <c r="T19">
+        <v>24</v>
+      </c>
+      <c r="U19">
+        <v>23</v>
+      </c>
+      <c r="V19">
+        <v>22</v>
+      </c>
+      <c r="W19">
+        <v>21</v>
+      </c>
+      <c r="X19">
+        <v>20</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z19">
+        <v>18</v>
+      </c>
+      <c r="AA19">
+        <v>17</v>
+      </c>
+      <c r="AB19">
+        <v>16</v>
+      </c>
+      <c r="AC19">
+        <v>15</v>
+      </c>
+      <c r="AD19">
+        <v>14</v>
+      </c>
+      <c r="AE19">
+        <v>13</v>
+      </c>
+      <c r="AF19">
+        <v>12</v>
+      </c>
+      <c r="AG19">
+        <v>11</v>
+      </c>
+      <c r="AH19">
+        <v>10</v>
+      </c>
+      <c r="AI19">
+        <v>9</v>
+      </c>
+      <c r="AJ19">
+        <v>8</v>
+      </c>
+      <c r="AK19">
+        <v>7</v>
+      </c>
+      <c r="AL19">
+        <v>6</v>
+      </c>
+      <c r="AM19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="5:39" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>50</v>
+      </c>
+      <c r="N22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="5:39" x14ac:dyDescent="0.25">
+      <c r="K23" t="s">
+        <v>28</v>
+      </c>
+      <c r="N23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="5:39" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>2</v>
+      </c>
+      <c r="J24">
+        <v>3</v>
+      </c>
+      <c r="K24">
+        <v>4</v>
+      </c>
+      <c r="L24">
+        <v>5</v>
+      </c>
+      <c r="M24">
+        <v>6</v>
+      </c>
+      <c r="N24">
+        <v>7</v>
+      </c>
+      <c r="O24">
+        <v>8</v>
+      </c>
+      <c r="P24">
+        <v>9</v>
+      </c>
+      <c r="Q24">
+        <v>10</v>
+      </c>
+      <c r="R24">
+        <v>11</v>
+      </c>
+      <c r="S24">
+        <v>12</v>
+      </c>
+      <c r="T24">
+        <v>13</v>
+      </c>
+      <c r="U24">
+        <v>14</v>
+      </c>
+      <c r="V24">
+        <v>15</v>
+      </c>
+      <c r="W24">
+        <v>16</v>
+      </c>
+      <c r="X24">
+        <v>17</v>
+      </c>
+      <c r="Y24">
+        <v>18</v>
+      </c>
+      <c r="Z24">
+        <v>19</v>
+      </c>
+      <c r="AA24">
+        <v>20</v>
+      </c>
+      <c r="AB24">
+        <v>21</v>
+      </c>
+      <c r="AC24">
+        <v>22</v>
+      </c>
+      <c r="AD24">
+        <v>23</v>
+      </c>
+      <c r="AE24">
+        <v>24</v>
+      </c>
+      <c r="AF24">
+        <v>25</v>
+      </c>
+      <c r="AG24">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="5:39" x14ac:dyDescent="0.25">
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>2</v>
+      </c>
+      <c r="J26">
+        <v>3</v>
+      </c>
+      <c r="K26">
+        <v>4</v>
+      </c>
+      <c r="L26">
+        <v>5</v>
+      </c>
+      <c r="M26">
+        <v>6</v>
+      </c>
+      <c r="N26">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="5:39" x14ac:dyDescent="0.25">
+      <c r="F27" t="s">
+        <v>25</v>
+      </c>
+      <c r="G27">
+        <v>25</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>2</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>4</v>
+      </c>
+      <c r="M27">
+        <v>5</v>
+      </c>
+      <c r="N27">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="5:39" x14ac:dyDescent="0.25">
+      <c r="F28" t="s">
+        <v>26</v>
+      </c>
+      <c r="G28">
+        <v>24</v>
+      </c>
+      <c r="N28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="5:39" x14ac:dyDescent="0.25">
+      <c r="F29" t="s">
+        <v>27</v>
+      </c>
+      <c r="G29">
+        <v>23</v>
+      </c>
+      <c r="N29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="5:39" x14ac:dyDescent="0.25">
+      <c r="F30" t="s">
+        <v>28</v>
+      </c>
+      <c r="G30">
+        <v>22</v>
+      </c>
+      <c r="N30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="5:39" x14ac:dyDescent="0.25">
+      <c r="F31" t="s">
+        <v>29</v>
+      </c>
+      <c r="G31">
+        <v>21</v>
+      </c>
+      <c r="N31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="5:39" x14ac:dyDescent="0.25">
+      <c r="F32" t="s">
+        <v>30</v>
+      </c>
+      <c r="G32">
+        <v>20</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F33" t="s">
+        <v>21</v>
+      </c>
+      <c r="G33">
+        <v>19</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F34" t="s">
+        <v>31</v>
+      </c>
+      <c r="G34">
+        <v>18</v>
+      </c>
+      <c r="H34">
+        <v>19</v>
+      </c>
+      <c r="N34">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F35" t="s">
+        <v>32</v>
+      </c>
+      <c r="G35">
+        <v>17</v>
+      </c>
+      <c r="I35">
+        <v>19</v>
+      </c>
+      <c r="N35">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F36" t="s">
+        <v>33</v>
+      </c>
+      <c r="G36">
+        <v>16</v>
+      </c>
+      <c r="J36">
+        <v>19</v>
+      </c>
+      <c r="N36">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F37" t="s">
+        <v>34</v>
+      </c>
+      <c r="G37">
+        <v>15</v>
+      </c>
+      <c r="K37">
+        <v>19</v>
+      </c>
+      <c r="N37">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F38" t="s">
+        <v>35</v>
+      </c>
+      <c r="G38">
+        <v>14</v>
+      </c>
+      <c r="L38">
+        <v>19</v>
+      </c>
+      <c r="N38">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F39" t="s">
+        <v>36</v>
+      </c>
+      <c r="G39">
+        <v>13</v>
+      </c>
+      <c r="M39">
+        <v>19</v>
+      </c>
+      <c r="N39">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F40" t="s">
+        <v>37</v>
+      </c>
+      <c r="G40">
+        <v>12</v>
+      </c>
+      <c r="N40" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F41" t="s">
+        <v>38</v>
+      </c>
+      <c r="G41">
+        <v>11</v>
+      </c>
+      <c r="M41">
+        <v>19</v>
+      </c>
+      <c r="O41">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F42" t="s">
+        <v>39</v>
+      </c>
+      <c r="G42">
+        <v>10</v>
+      </c>
+      <c r="P42">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F43" t="s">
+        <v>40</v>
+      </c>
+      <c r="G43">
+        <v>9</v>
+      </c>
+      <c r="Q43">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F44" t="s">
+        <v>41</v>
+      </c>
+      <c r="G44">
+        <v>8</v>
+      </c>
+      <c r="R44">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F45" t="s">
+        <v>42</v>
+      </c>
+      <c r="G45">
+        <v>7</v>
+      </c>
+      <c r="S45">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F46" t="s">
+        <v>43</v>
+      </c>
+      <c r="G46">
+        <v>6</v>
+      </c>
+      <c r="T46">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F47" t="s">
+        <v>44</v>
+      </c>
+      <c r="G47">
+        <v>5</v>
+      </c>
+      <c r="U47">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F48" t="s">
+        <v>45</v>
+      </c>
+      <c r="G48">
+        <v>4</v>
+      </c>
+      <c r="V48">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="F49" t="s">
+        <v>46</v>
+      </c>
+      <c r="G49">
+        <v>3</v>
+      </c>
+      <c r="H49">
+        <v>4</v>
+      </c>
+      <c r="I49">
+        <v>5</v>
+      </c>
+      <c r="J49">
+        <v>6</v>
+      </c>
+      <c r="K49" t="s">
+        <v>47</v>
+      </c>
+      <c r="L49">
+        <v>8</v>
+      </c>
+      <c r="M49">
+        <v>9</v>
+      </c>
+      <c r="N49">
+        <v>10</v>
+      </c>
+      <c r="O49">
+        <v>11</v>
+      </c>
+      <c r="P49">
+        <v>12</v>
+      </c>
+      <c r="Q49">
+        <v>13</v>
+      </c>
+      <c r="R49">
+        <v>14</v>
+      </c>
+      <c r="S49">
+        <v>15</v>
+      </c>
+      <c r="T49">
+        <v>16</v>
+      </c>
+      <c r="U49">
+        <v>17</v>
+      </c>
+      <c r="V49">
+        <v>18</v>
+      </c>
+      <c r="W49">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="F50" t="s">
+        <v>48</v>
+      </c>
+      <c r="G50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="F51" t="s">
+        <v>49</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>